--- a/Doc/Arch/TaC命令表.xlsx
+++ b/Doc/Arch/TaC命令表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/Library/Mobile Documents/com~apple~CloudDocs/40_研究関係/TaC再設計/TeC7/Doc/Arch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/Library/Mobile Documents/com~apple~CloudDocs/20_GitHub/TeC7/Doc/Arch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0018FD-421B-AD49-92D6-6304FC32E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A7128D-0852-FD4F-A2CB-1184BEA09F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命令表" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="844">
   <si>
     <r>
       <rPr>
@@ -602,9 +602,6 @@
   </si>
   <si>
     <t>RETI</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>FLAG ← [SP++], PC ← [SP++]</t>
@@ -3848,29 +3845,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <r>
-      <t>Ver.10.0.0(TeC7a,b,c,d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>対応</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック Bold"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>TaC-CPU V3対応</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">タイオウ </t>
@@ -4146,6 +4120,37 @@
   </si>
   <si>
     <t>--</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <r>
+      <t>Ver.10.1.0(TeC7a,b,c,d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック Bold"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -6024,74 +6029,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -6111,12 +6164,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6129,52 +6176,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6189,14 +6203,170 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6243,209 +6413,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="13" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6892,8 +6897,8 @@
   </sheetPr>
   <dimension ref="B1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14"/>
@@ -6911,11 +6916,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -6928,13 +6933,13 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="7" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="18">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6947,42 +6952,42 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="8">
-        <v>44644</v>
+        <v>44796</v>
       </c>
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:17" ht="17" customHeight="1">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="209"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="211" t="s">
+      <c r="F3" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="212" t="s">
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="201"/>
+      <c r="Q3" s="194"/>
     </row>
     <row r="4" spans="2:17" ht="18">
-      <c r="B4" s="209"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
@@ -7019,9 +7024,9 @@
       <c r="N4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="212"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="201"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="194"/>
     </row>
     <row r="5" spans="2:17" ht="19">
       <c r="B5" s="21" t="s">
@@ -7092,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>31</v>
@@ -7101,10 +7106,10 @@
         <v>31</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>21</v>
@@ -7131,16 +7136,16 @@
         <v>36</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>21</v>
@@ -7188,19 +7193,19 @@
         <v>30</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>21</v>
@@ -7236,19 +7241,19 @@
         <v>30</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>21</v>
@@ -7284,19 +7289,19 @@
         <v>30</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>21</v>
@@ -7332,19 +7337,19 @@
         <v>30</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>21</v>
@@ -7380,19 +7385,19 @@
         <v>30</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>21</v>
@@ -7428,19 +7433,19 @@
         <v>30</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>21</v>
@@ -7476,19 +7481,19 @@
         <v>30</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>21</v>
@@ -7524,19 +7529,19 @@
         <v>30</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N15" s="16" t="s">
         <v>21</v>
@@ -7562,28 +7567,28 @@
         <v>73</v>
       </c>
       <c r="F16" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="I16" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="J16" s="37" t="s">
         <v>789</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="K16" s="37" t="s">
         <v>789</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>790</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>790</v>
-      </c>
       <c r="L16" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>21</v>
@@ -7609,28 +7614,28 @@
         <v>77</v>
       </c>
       <c r="F17" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="I17" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="J17" s="37" t="s">
         <v>789</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="K17" s="37" t="s">
         <v>789</v>
       </c>
-      <c r="J17" s="37" t="s">
-        <v>790</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>790</v>
-      </c>
       <c r="L17" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N17" s="37" t="s">
         <v>21</v>
@@ -7665,19 +7670,19 @@
         <v>30</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>21</v>
@@ -7713,19 +7718,19 @@
         <v>30</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N19" s="19" t="s">
         <v>21</v>
@@ -7761,19 +7766,19 @@
         <v>30</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>21</v>
@@ -7809,19 +7814,19 @@
         <v>30</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>21</v>
@@ -7848,10 +7853,10 @@
         <v>97</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>21</v>
@@ -7896,10 +7901,10 @@
         <v>101</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>21</v>
@@ -7944,10 +7949,10 @@
         <v>105</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>21</v>
@@ -7992,10 +7997,10 @@
         <v>109</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>21</v>
@@ -8028,7 +8033,7 @@
     </row>
     <row r="26" spans="2:17" ht="19">
       <c r="B26" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>111</v>
@@ -8040,10 +8045,10 @@
         <v>112</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>21</v>
@@ -8076,7 +8081,7 @@
     </row>
     <row r="27" spans="2:17" ht="19">
       <c r="B27" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>114</v>
@@ -8088,10 +8093,10 @@
         <v>115</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>21</v>
@@ -8124,7 +8129,7 @@
     </row>
     <row r="28" spans="2:17" ht="19">
       <c r="B28" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>117</v>
@@ -8136,10 +8141,10 @@
         <v>118</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>21</v>
@@ -8172,7 +8177,7 @@
     </row>
     <row r="29" spans="2:17" ht="19">
       <c r="B29" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>120</v>
@@ -8184,10 +8189,10 @@
         <v>121</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>21</v>
@@ -8232,10 +8237,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>21</v>
@@ -8280,10 +8285,10 @@
         <v>129</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>21</v>
@@ -8328,10 +8333,10 @@
         <v>133</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>21</v>
@@ -8376,10 +8381,10 @@
         <v>137</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>21</v>
@@ -8412,7 +8417,7 @@
     </row>
     <row r="34" spans="2:17" ht="19">
       <c r="B34" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>139</v>
@@ -8424,10 +8429,10 @@
         <v>140</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>21</v>
@@ -8460,7 +8465,7 @@
     </row>
     <row r="35" spans="2:17" ht="19">
       <c r="B35" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>142</v>
@@ -8472,10 +8477,10 @@
         <v>143</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>21</v>
@@ -8568,10 +8573,10 @@
         <v>151</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>21</v>
@@ -8616,7 +8621,7 @@
         <v>155</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>21</v>
@@ -8634,10 +8639,10 @@
         <v>21</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N38" s="19" t="s">
         <v>21</v>
@@ -8664,7 +8669,7 @@
         <v>159</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>21</v>
@@ -8682,10 +8687,10 @@
         <v>21</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N39" s="19" t="s">
         <v>21</v>
@@ -8784,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O41" s="25" t="s">
         <v>23</v>
@@ -8849,7 +8854,7 @@
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="77" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>21</v>
@@ -8876,28 +8881,28 @@
         <v>21</v>
       </c>
       <c r="N43" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="P43" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" s="21" t="s">
+      <c r="Q43" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="19">
       <c r="B44" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>21</v>
@@ -8924,26 +8929,26 @@
         <v>21</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O44" s="25" t="s">
         <v>23</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="2:17" ht="19">
       <c r="B45" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>21</v>
@@ -8970,13 +8975,13 @@
         <v>21</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>23</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="9"/>
     </row>
@@ -8987,12 +8992,12 @@
       <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="2:17" ht="17">
-      <c r="B47" s="202" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
+      <c r="B47" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="195"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="195"/>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
@@ -9006,386 +9011,386 @@
       <c r="P47" s="43"/>
     </row>
     <row r="48" spans="2:17" ht="17" customHeight="1">
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="196" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="196" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="203" t="s">
+      <c r="D48" s="197" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="197"/>
+      <c r="F48" s="198" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="204" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="204"/>
-      <c r="F48" s="205" t="s">
+      <c r="G48" s="198"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="199" t="s">
         <v>190</v>
       </c>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="206" t="s">
+      <c r="K48" s="199"/>
+      <c r="L48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="199"/>
+      <c r="O48" s="199"/>
+      <c r="P48" s="199"/>
+    </row>
+    <row r="49" spans="2:17" ht="17">
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="200" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="206"/>
-      <c r="L48" s="206"/>
-      <c r="M48" s="206"/>
-      <c r="N48" s="206"/>
-      <c r="O48" s="206"/>
-      <c r="P48" s="206"/>
-    </row>
-    <row r="49" spans="2:17" ht="17">
-      <c r="B49" s="203"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="207" t="s">
+      <c r="E49" s="200"/>
+      <c r="F49" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="207"/>
-      <c r="F49" s="208" t="s">
+      <c r="G49" s="201"/>
+      <c r="H49" s="201" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="208"/>
-      <c r="H49" s="208" t="s">
+      <c r="I49" s="201"/>
+      <c r="J49" s="201" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" s="201"/>
+      <c r="L49" s="201" t="s">
         <v>194</v>
       </c>
-      <c r="I49" s="208"/>
-      <c r="J49" s="208" t="s">
-        <v>189</v>
-      </c>
-      <c r="K49" s="208"/>
-      <c r="L49" s="208" t="s">
-        <v>195</v>
-      </c>
-      <c r="M49" s="208"/>
-      <c r="N49" s="208"/>
-      <c r="O49" s="208"/>
-      <c r="P49" s="208"/>
+      <c r="M49" s="201"/>
+      <c r="N49" s="201"/>
+      <c r="O49" s="201"/>
+      <c r="P49" s="201"/>
     </row>
     <row r="50" spans="2:17" ht="17">
       <c r="B50" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="199" t="s">
+      <c r="D50" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="202"/>
+      <c r="F50" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="E50" s="199"/>
-      <c r="F50" s="46" t="s">
+      <c r="G50" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="47" t="s">
+      <c r="H50" s="203" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="200" t="s">
+      <c r="I50" s="203"/>
+      <c r="J50" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="I50" s="200"/>
-      <c r="J50" s="200" t="s">
+      <c r="K50" s="203"/>
+      <c r="L50" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="K50" s="200"/>
-      <c r="L50" s="199" t="s">
-        <v>202</v>
-      </c>
-      <c r="M50" s="199"/>
-      <c r="N50" s="199"/>
-      <c r="O50" s="199"/>
-      <c r="P50" s="199"/>
+      <c r="M50" s="202"/>
+      <c r="N50" s="202"/>
+      <c r="O50" s="202"/>
+      <c r="P50" s="202"/>
     </row>
     <row r="51" spans="2:17" ht="17">
       <c r="B51" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="195" t="s">
+      <c r="D51" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="204"/>
+      <c r="F51" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="195"/>
-      <c r="F51" s="50" t="s">
+      <c r="G51" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="H51" s="205" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="205"/>
+      <c r="J51" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H51" s="196" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="196"/>
-      <c r="J51" s="196" t="s">
+      <c r="K51" s="205"/>
+      <c r="L51" s="206" t="s">
         <v>207</v>
       </c>
-      <c r="K51" s="196"/>
-      <c r="L51" s="190" t="s">
-        <v>208</v>
-      </c>
-      <c r="M51" s="190"/>
-      <c r="N51" s="190"/>
-      <c r="O51" s="190"/>
-      <c r="P51" s="190"/>
+      <c r="M51" s="206"/>
+      <c r="N51" s="206"/>
+      <c r="O51" s="206"/>
+      <c r="P51" s="206"/>
     </row>
     <row r="52" spans="2:17" ht="17">
       <c r="B52" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="204" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="204"/>
+      <c r="F52" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="195"/>
-      <c r="F52" s="50" t="s">
+      <c r="G52" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="205" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="205"/>
+      <c r="J52" s="205" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="205"/>
+      <c r="L52" s="207" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" s="196" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="196"/>
-      <c r="J52" s="196" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="196"/>
-      <c r="L52" s="197" t="s">
-        <v>212</v>
-      </c>
-      <c r="M52" s="197"/>
-      <c r="N52" s="197"/>
-      <c r="O52" s="197"/>
-      <c r="P52" s="197"/>
+      <c r="M52" s="207"/>
+      <c r="N52" s="207"/>
+      <c r="O52" s="207"/>
+      <c r="P52" s="207"/>
     </row>
     <row r="53" spans="2:17" ht="17">
       <c r="B53" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="195" t="s">
+      <c r="D53" s="204" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="204"/>
+      <c r="F53" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="195"/>
-      <c r="F53" s="50" t="s">
+      <c r="G53" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="H53" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="205"/>
+      <c r="J53" s="205" t="s">
         <v>216</v>
       </c>
-      <c r="H53" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="196"/>
-      <c r="J53" s="196" t="s">
+      <c r="K53" s="205"/>
+      <c r="L53" s="208" t="s">
         <v>217</v>
       </c>
-      <c r="K53" s="196"/>
-      <c r="L53" s="198" t="s">
+      <c r="M53" s="208"/>
+      <c r="N53" s="208"/>
+      <c r="O53" s="208"/>
+      <c r="P53" s="208"/>
+      <c r="Q53" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="M53" s="198"/>
-      <c r="N53" s="198"/>
-      <c r="O53" s="198"/>
-      <c r="P53" s="198"/>
-      <c r="Q53" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:17" ht="17">
       <c r="B54" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="195" t="s">
+      <c r="D54" s="204" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="204"/>
+      <c r="F54" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="E54" s="195"/>
-      <c r="F54" s="50" t="s">
+      <c r="G54" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="H54" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="205"/>
+      <c r="J54" s="205" t="s">
         <v>223</v>
       </c>
-      <c r="H54" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196" t="s">
+      <c r="K54" s="205"/>
+      <c r="L54" s="207" t="s">
         <v>224</v>
       </c>
-      <c r="K54" s="196"/>
-      <c r="L54" s="197" t="s">
-        <v>225</v>
-      </c>
-      <c r="M54" s="197"/>
-      <c r="N54" s="197"/>
-      <c r="O54" s="197"/>
-      <c r="P54" s="197"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="207"/>
+      <c r="O54" s="207"/>
+      <c r="P54" s="207"/>
     </row>
     <row r="55" spans="2:17" ht="17">
       <c r="B55" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="195" t="s">
+      <c r="D55" s="204" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" s="204"/>
+      <c r="F55" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="195"/>
-      <c r="F55" s="50" t="s">
+      <c r="G55" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="H55" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="205"/>
+      <c r="J55" s="205" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="205"/>
+      <c r="L55" s="207" t="s">
         <v>229</v>
       </c>
-      <c r="H55" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="196"/>
-      <c r="J55" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="196"/>
-      <c r="L55" s="197" t="s">
+      <c r="M55" s="207"/>
+      <c r="N55" s="207"/>
+      <c r="O55" s="207"/>
+      <c r="P55" s="207"/>
+      <c r="Q55" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="M55" s="197"/>
-      <c r="N55" s="197"/>
-      <c r="O55" s="197"/>
-      <c r="P55" s="197"/>
-      <c r="Q55" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="17">
       <c r="B56" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="195" t="s">
+      <c r="D56" s="204" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="204"/>
+      <c r="F56" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="195"/>
-      <c r="F56" s="50" t="s">
+      <c r="G56" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="205"/>
+      <c r="J56" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="G56" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="H56" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="196"/>
-      <c r="J56" s="196" t="s">
+      <c r="K56" s="205"/>
+      <c r="L56" s="207" t="s">
         <v>235</v>
       </c>
-      <c r="K56" s="196"/>
-      <c r="L56" s="197" t="s">
-        <v>236</v>
-      </c>
-      <c r="M56" s="197"/>
-      <c r="N56" s="197"/>
-      <c r="O56" s="197"/>
-      <c r="P56" s="197"/>
+      <c r="M56" s="207"/>
+      <c r="N56" s="207"/>
+      <c r="O56" s="207"/>
+      <c r="P56" s="207"/>
     </row>
     <row r="57" spans="2:17" ht="17">
       <c r="B57" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="205"/>
+      <c r="J57" s="205" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57" s="205"/>
+      <c r="L57" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="G57" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="H57" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="196"/>
-      <c r="J57" s="196" t="s">
-        <v>235</v>
-      </c>
-      <c r="K57" s="196"/>
-      <c r="L57" s="197" t="s">
+      <c r="M57" s="207"/>
+      <c r="N57" s="207"/>
+      <c r="O57" s="207"/>
+      <c r="P57" s="207"/>
+    </row>
+    <row r="58" spans="2:17" ht="17">
+      <c r="B58" s="209" t="s">
         <v>240</v>
       </c>
-      <c r="M57" s="197"/>
-      <c r="N57" s="197"/>
-      <c r="O57" s="197"/>
-      <c r="P57" s="197"/>
-    </row>
-    <row r="58" spans="2:17" ht="17">
-      <c r="B58" s="191" t="s">
+      <c r="C58" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="204" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="194" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="195" t="s">
+      <c r="E58" s="204"/>
+      <c r="F58" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="195"/>
-      <c r="F58" s="50" t="s">
+      <c r="G58" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="205"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="206" t="s">
         <v>243</v>
       </c>
-      <c r="G58" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="H58" s="196" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
-      <c r="K58" s="196"/>
-      <c r="L58" s="190" t="s">
+      <c r="M58" s="206"/>
+      <c r="N58" s="206"/>
+      <c r="O58" s="206"/>
+      <c r="P58" s="206"/>
+    </row>
+    <row r="59" spans="2:17" ht="17">
+      <c r="B59" s="209"/>
+      <c r="C59" s="210"/>
+      <c r="D59" s="209" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="209"/>
+      <c r="F59" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="M58" s="190"/>
-      <c r="N58" s="190"/>
-      <c r="O58" s="190"/>
-      <c r="P58" s="190"/>
-    </row>
-    <row r="59" spans="2:17" ht="17">
-      <c r="B59" s="191"/>
-      <c r="C59" s="194"/>
-      <c r="D59" s="191" t="s">
+      <c r="H59" s="211" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="211"/>
+      <c r="J59" s="211"/>
+      <c r="K59" s="211"/>
+      <c r="L59" s="212" t="s">
         <v>243</v>
       </c>
-      <c r="E59" s="191"/>
-      <c r="F59" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="H59" s="192" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="192"/>
-      <c r="J59" s="192"/>
-      <c r="K59" s="192"/>
-      <c r="L59" s="193" t="s">
-        <v>244</v>
-      </c>
-      <c r="M59" s="193"/>
-      <c r="N59" s="193"/>
-      <c r="O59" s="193"/>
-      <c r="P59" s="193"/>
+      <c r="M59" s="212"/>
+      <c r="N59" s="212"/>
+      <c r="O59" s="212"/>
+      <c r="P59" s="212"/>
     </row>
     <row r="60" spans="2:17" ht="17">
       <c r="B60"/>
@@ -9393,7 +9398,7 @@
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -9402,7 +9407,7 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -9411,7 +9416,7 @@
     </row>
     <row r="61" spans="2:17" ht="17">
       <c r="B61" s="175" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -9421,14 +9426,14 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="2:17" ht="18">
       <c r="B62" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C62" s="1"/>
       <c r="F62" s="1"/>
@@ -9439,17 +9444,17 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="2:17" ht="17">
       <c r="B63" s="56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="166" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -9459,7 +9464,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -9556,7 +9561,7 @@
         <v>41171</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -9575,7 +9580,7 @@
         <v>41171</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -9594,7 +9599,7 @@
         <v>41278</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -9613,7 +9618,7 @@
         <v>41278</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -9632,7 +9637,7 @@
         <v>41936</v>
       </c>
       <c r="C73" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -9651,7 +9656,7 @@
         <v>43365</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -9670,7 +9675,7 @@
         <v>43464</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -9689,7 +9694,7 @@
         <v>43478</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -9708,7 +9713,7 @@
         <v>43482</v>
       </c>
       <c r="C77" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -9727,7 +9732,7 @@
         <v>43840</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -9743,10 +9748,10 @@
     </row>
     <row r="79" spans="2:17" ht="17">
       <c r="B79" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" t="s">
         <v>262</v>
-      </c>
-      <c r="C79" t="s">
-        <v>263</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -9765,7 +9770,7 @@
         <v>44482</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -9784,7 +9789,7 @@
         <v>44492</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -9803,7 +9808,7 @@
         <v>44625</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -10013,364 +10018,75 @@
       <c r="O96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="3:17">
-      <c r="C97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="3:17">
-      <c r="C98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="3:17">
-      <c r="C99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="3:17">
-      <c r="C100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="3:17">
-      <c r="C101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="3:17">
-      <c r="C102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="3:17">
-      <c r="C103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="3:17">
-      <c r="C104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="3:17">
-      <c r="C105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="3:17">
-      <c r="C106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="3:17">
-      <c r="C107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="3:17">
-      <c r="C108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="3:17">
-      <c r="C109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="3:17">
-      <c r="C110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="3:17">
-      <c r="C111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="3:17">
-      <c r="C112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="3:17">
-      <c r="C113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="3:17">
-      <c r="C114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="3:17">
-      <c r="C115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="3:17">
-      <c r="C116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="3:17">
-      <c r="C117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="3:17">
-      <c r="C118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="3:17">
-      <c r="C119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="3:17">
-      <c r="C120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="3:17">
-      <c r="C121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="Q121" s="1"/>
-    </row>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="59">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:P51"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:B49"/>
@@ -10384,47 +10100,11 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:P49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.79027777777777775" right="0.79027777777777775" top="0.79027777777777775" bottom="0.79027777777777775" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -10458,24 +10138,24 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="62" t="str">
         <f>命令表!P1</f>
-        <v>Ver.10.0.0(TeC7a,b,c,d対応)</v>
+        <v>Ver.10.1.0(TeC7a,b,c,d対応)</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="M2" s="226">
         <f>命令表!P2</f>
-        <v>44644</v>
+        <v>44796</v>
       </c>
       <c r="N2" s="226"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="63">
         <v>15</v>
@@ -10492,37 +10172,37 @@
     </row>
     <row r="4" spans="1:14" ht="14">
       <c r="B4" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="209" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="I4" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="I4" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
     </row>
     <row r="5" spans="1:14" ht="14">
       <c r="B5" s="64"/>
       <c r="C5" s="5"/>
       <c r="J5" s="166" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14">
       <c r="B6" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="209" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
     </row>
     <row r="7" spans="1:14" ht="14">
       <c r="B7" s="64"/>
@@ -10532,151 +10212,151 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="215" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="227" t="s">
+      <c r="D9" s="215"/>
+      <c r="E9" s="215" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227" t="s">
+      <c r="F9" s="215"/>
+      <c r="H9" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="227"/>
-      <c r="H9" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" s="227" t="s">
+      <c r="J9" s="215" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215" t="s">
         <v>273</v>
       </c>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227" t="s">
-        <v>274</v>
-      </c>
-      <c r="M9" s="227"/>
+      <c r="M9" s="215"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="I10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="I10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="I11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="I11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J11" s="231"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="228"/>
-      <c r="M11" s="228"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="I12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="I12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="1:14" ht="17" customHeight="1">
       <c r="B13" s="64"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
       <c r="I13" s="64"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
     </row>
     <row r="14" spans="1:14" ht="17" customHeight="1">
       <c r="B14" s="64"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
       <c r="I14" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="J14" s="229"/>
-      <c r="K14" s="229"/>
-      <c r="L14" s="230"/>
-      <c r="M14" s="230"/>
+        <v>281</v>
+      </c>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
     </row>
     <row r="15" spans="1:14" ht="17" customHeight="1">
       <c r="B15" s="64"/>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
       <c r="I15" s="64"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="229"/>
-      <c r="L15" s="230"/>
-      <c r="M15" s="230"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
     </row>
     <row r="16" spans="1:14" ht="17" customHeight="1">
       <c r="B16" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="I16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="I16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="228"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
     </row>
     <row r="17" spans="1:21" ht="17" customHeight="1">
       <c r="B17" s="64"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
       <c r="I17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="228"/>
+        <v>283</v>
+      </c>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
     </row>
     <row r="18" spans="1:21" ht="17" customHeight="1">
       <c r="B18" s="64"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
       <c r="I18" s="65"/>
       <c r="J18" s="66"/>
       <c r="K18" s="66"/>
@@ -10686,21 +10366,21 @@
     </row>
     <row r="19" spans="1:21" ht="17" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
+        <v>284</v>
+      </c>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
+        <v>285</v>
+      </c>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
     </row>
     <row r="21" spans="1:21" ht="14">
       <c r="B21" s="64"/>
@@ -10710,16 +10390,16 @@
     </row>
     <row r="23" spans="1:21" ht="14">
       <c r="A23" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="I23" s="191" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="I23" s="209" t="s">
-        <v>288</v>
-      </c>
-      <c r="J23" s="209"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" ht="17" customHeight="1">
@@ -10731,92 +10411,92 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="217" t="s">
+      <c r="I24" s="233" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="K24" s="234" t="s">
         <v>290</v>
       </c>
-      <c r="K24" s="218" t="s">
-        <v>291</v>
-      </c>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" ht="17" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
       <c r="F25" s="23"/>
-      <c r="I25" s="217"/>
+      <c r="I25" s="233"/>
       <c r="J25" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="234" t="s">
         <v>293</v>
       </c>
-      <c r="K25" s="218" t="s">
-        <v>294</v>
-      </c>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
       <c r="U25"/>
     </row>
     <row r="26" spans="1:21">
       <c r="B26" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
       <c r="F26" s="23"/>
-      <c r="I26" s="217"/>
+      <c r="I26" s="233"/>
       <c r="J26" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="227" t="s">
         <v>296</v>
       </c>
-      <c r="K26" s="219" t="s">
-        <v>297</v>
-      </c>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="227"/>
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21">
       <c r="B27" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
       <c r="F27" s="23"/>
-      <c r="I27" s="217"/>
+      <c r="I27" s="233"/>
       <c r="J27" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="K27" s="227" t="s">
         <v>299</v>
       </c>
-      <c r="K27" s="219" t="s">
-        <v>300</v>
-      </c>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
+      <c r="L27" s="227"/>
+      <c r="M27" s="227"/>
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21">
       <c r="B28" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C28" s="69"/>
       <c r="D28" s="70"/>
       <c r="E28" s="70"/>
       <c r="F28" s="23"/>
-      <c r="I28" s="221" t="s">
+      <c r="I28" s="235" t="s">
+        <v>301</v>
+      </c>
+      <c r="J28" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="K28" s="73" t="s">
         <v>303</v>
-      </c>
-      <c r="K28" s="73" t="s">
-        <v>304</v>
       </c>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
@@ -10824,174 +10504,174 @@
     </row>
     <row r="29" spans="1:21">
       <c r="B29" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" s="69"/>
       <c r="D29" s="70"/>
       <c r="E29" s="70"/>
       <c r="F29" s="23"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="221" t="s">
+      <c r="I29" s="236"/>
+      <c r="J29" s="235" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="228" t="s">
         <v>306</v>
       </c>
-      <c r="K29" s="225" t="s">
-        <v>307</v>
-      </c>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="228"/>
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21">
       <c r="B30" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" s="69"/>
       <c r="D30" s="70"/>
       <c r="E30" s="70"/>
       <c r="F30" s="23"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="222"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="236"/>
       <c r="K30" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="L30" s="223" t="s">
         <v>309</v>
       </c>
-      <c r="L30" s="220" t="s">
-        <v>310</v>
-      </c>
-      <c r="M30" s="220"/>
+      <c r="M30" s="223"/>
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21">
       <c r="B31" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="70"/>
       <c r="E31" s="70"/>
       <c r="F31" s="23"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="222"/>
+      <c r="I31" s="236"/>
+      <c r="J31" s="236"/>
       <c r="K31" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="L31" s="223" t="s">
         <v>312</v>
       </c>
-      <c r="L31" s="220" t="s">
-        <v>313</v>
-      </c>
-      <c r="M31" s="220"/>
+      <c r="M31" s="223"/>
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21">
       <c r="B32" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="69"/>
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="23"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="222"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="236"/>
       <c r="K32" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" s="221" t="s">
         <v>315</v>
       </c>
-      <c r="L32" s="233" t="s">
-        <v>316</v>
-      </c>
-      <c r="M32" s="233"/>
+      <c r="M32" s="221"/>
       <c r="U32"/>
     </row>
     <row r="33" spans="1:21">
       <c r="B33" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="70"/>
       <c r="E33" s="70"/>
       <c r="F33" s="23"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
       <c r="K33" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="L33" s="234" t="s">
-        <v>793</v>
-      </c>
-      <c r="M33" s="220"/>
+        <v>801</v>
+      </c>
+      <c r="L33" s="222" t="s">
+        <v>792</v>
+      </c>
+      <c r="M33" s="223"/>
       <c r="U33"/>
     </row>
     <row r="34" spans="1:21">
       <c r="B34" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="70"/>
       <c r="E34" s="70"/>
       <c r="F34" s="23"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="222"/>
+      <c r="I34" s="236"/>
+      <c r="J34" s="236"/>
       <c r="K34" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="L34" s="220" t="s">
-        <v>318</v>
-      </c>
-      <c r="M34" s="220"/>
+        <v>802</v>
+      </c>
+      <c r="L34" s="223" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" s="223"/>
       <c r="O34" s="63"/>
       <c r="U34"/>
     </row>
     <row r="35" spans="1:21">
       <c r="B35" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="69"/>
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="23"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="222"/>
+      <c r="I35" s="236"/>
+      <c r="J35" s="236"/>
       <c r="K35" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L35" s="74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M35" s="74"/>
       <c r="U35"/>
     </row>
     <row r="36" spans="1:21">
       <c r="B36" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="70"/>
       <c r="E36" s="70"/>
       <c r="F36" s="23"/>
-      <c r="I36" s="222"/>
-      <c r="J36" s="222"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="236"/>
       <c r="K36" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" s="238" t="s">
         <v>322</v>
       </c>
-      <c r="L36" s="224" t="s">
-        <v>323</v>
-      </c>
-      <c r="M36" s="225"/>
+      <c r="M36" s="228"/>
       <c r="U36"/>
     </row>
     <row r="37" spans="1:21">
       <c r="B37" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
       <c r="F37" s="23"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="237"/>
       <c r="K37" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" s="238" t="s">
         <v>325</v>
       </c>
-      <c r="L37" s="224" t="s">
-        <v>326</v>
-      </c>
-      <c r="M37" s="225"/>
+      <c r="M37" s="228"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -10999,10 +10679,10 @@
       <c r="U37"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="232" t="s">
-        <v>800</v>
-      </c>
-      <c r="B38" s="232"/>
+      <c r="A38" s="220" t="s">
+        <v>799</v>
+      </c>
+      <c r="B38" s="220"/>
       <c r="C38" s="69"/>
       <c r="D38" s="70"/>
       <c r="E38" s="70"/>
@@ -11021,19 +10701,19 @@
     </row>
     <row r="39" spans="1:21">
       <c r="B39" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
       <c r="F39" s="23"/>
       <c r="I39" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="209"/>
+        <v>302</v>
+      </c>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -11041,28 +10721,28 @@
       <c r="U39"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="213" t="s">
-        <v>801</v>
-      </c>
-      <c r="B40" s="214"/>
+      <c r="A40" s="229" t="s">
+        <v>800</v>
+      </c>
+      <c r="B40" s="230"/>
       <c r="C40" s="148"/>
       <c r="D40" s="149"/>
       <c r="E40" s="149"/>
       <c r="F40" s="150"/>
       <c r="I40" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J40" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" s="76" t="s">
+        <v>793</v>
+      </c>
+      <c r="M40" s="77" t="s">
         <v>328</v>
-      </c>
-      <c r="K40" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="L40" s="76" t="s">
-        <v>794</v>
-      </c>
-      <c r="M40" s="77" t="s">
-        <v>329</v>
       </c>
       <c r="Q40"/>
       <c r="R40"/>
@@ -11072,18 +10752,18 @@
     </row>
     <row r="41" spans="1:21">
       <c r="B41" s="64"/>
-      <c r="C41" s="215" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="J41" s="216" t="s">
-        <v>302</v>
-      </c>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216"/>
+      <c r="C41" s="231" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="231"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="231"/>
+      <c r="J41" s="232" t="s">
+        <v>301</v>
+      </c>
+      <c r="K41" s="232"/>
+      <c r="L41" s="232"/>
+      <c r="M41" s="232"/>
     </row>
     <row r="42" spans="1:21">
       <c r="B42" s="64"/>
@@ -11098,27 +10778,27 @@
     </row>
     <row r="43" spans="1:21" ht="14">
       <c r="B43" s="165" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="14">
       <c r="B44" s="166" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="14">
       <c r="B45" s="174" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="14">
       <c r="B46" s="174" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="14">
       <c r="B47" s="174" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="14">
@@ -14106,59 +13786,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="67">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="J39:M39"/>
@@ -14173,6 +13800,59 @@
     <mergeCell ref="J29:J37"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.79027777777777775" right="0.79027777777777775" top="0.79027777777777775" bottom="0.79027777777777775" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -14209,28 +13889,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24">
       <c r="A1" s="112" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N1" s="113" t="str">
         <f>命令表!P1</f>
-        <v>Ver.10.0.0(TeC7a,b,c,d対応)</v>
+        <v>Ver.10.1.0(TeC7a,b,c,d対応)</v>
       </c>
       <c r="Q1" s="114"/>
       <c r="R1" s="114"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="M2" s="247">
+      <c r="M2" s="239">
         <f>命令表!P2</f>
-        <v>44644</v>
-      </c>
-      <c r="N2" s="247"/>
+        <v>44796</v>
+      </c>
+      <c r="N2" s="239"/>
       <c r="O2" s="114"/>
       <c r="Q2" s="115"/>
       <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="87" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
@@ -14240,7 +13920,7 @@
       <c r="G3" s="85"/>
       <c r="H3" s="85"/>
       <c r="J3" s="87" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K3" s="85"/>
       <c r="L3" s="85"/>
@@ -14248,23 +13928,23 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" s="240"/>
       <c r="C4" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E4" s="240" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="240"/>
       <c r="G4" s="240"/>
       <c r="H4" s="240"/>
       <c r="J4" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K4" s="240"/>
       <c r="L4" s="83" t="s">
@@ -14281,10 +13961,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="79" t="s">
+        <v>754</v>
+      </c>
+      <c r="J6" s="87" t="s">
         <v>755</v>
-      </c>
-      <c r="J6" s="87" t="s">
-        <v>756</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
@@ -14292,30 +13972,30 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="240"/>
       <c r="C7" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="240" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="240"/>
       <c r="G7" s="240"/>
       <c r="H7" s="240"/>
       <c r="J7" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K7" s="240"/>
       <c r="L7" s="83" t="s">
         <v>163</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -14330,10 +14010,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="88" t="s">
+        <v>756</v>
+      </c>
+      <c r="J9" s="87" t="s">
         <v>757</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>758</v>
       </c>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
@@ -14341,14 +14021,14 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" s="240"/>
       <c r="C10" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" s="240" t="s">
         <v>11</v>
@@ -14357,14 +14037,14 @@
       <c r="G10" s="240"/>
       <c r="H10" s="240"/>
       <c r="J10" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K10" s="240"/>
       <c r="L10" s="83" t="s">
         <v>163</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -14379,7 +14059,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="87" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -14389,7 +14069,7 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="J12" s="79" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K12" s="85"/>
       <c r="L12" s="85"/>
@@ -14397,28 +14077,28 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" s="240"/>
       <c r="C13" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D13" s="188" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="J13" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K13" s="240"/>
       <c r="L13" s="83" t="s">
         <v>163</v>
       </c>
       <c r="M13" s="151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -14437,7 +14117,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="87" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -14447,7 +14127,7 @@
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="J15" s="79" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
@@ -14455,25 +14135,25 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="240"/>
       <c r="C16" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
       <c r="J16" s="240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K16" s="240"/>
       <c r="L16" s="240" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M16" s="240"/>
     </row>
@@ -14489,7 +14169,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="187" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -14505,10 +14185,10 @@
       <c r="S18" s="93"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="245"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="240" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D19" s="240"/>
       <c r="E19" s="240"/>
@@ -14519,58 +14199,58 @@
       <c r="J19" s="240"/>
       <c r="K19" s="86"/>
       <c r="L19" s="240" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M19" s="240"/>
       <c r="N19" s="240"/>
       <c r="P19" s="86"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="245"/>
-      <c r="B20" s="245"/>
+      <c r="A20" s="243"/>
+      <c r="B20" s="243"/>
       <c r="C20" s="189" t="s">
+        <v>825</v>
+      </c>
+      <c r="D20" s="189" t="s">
+        <v>826</v>
+      </c>
+      <c r="E20" s="189" t="s">
         <v>827</v>
       </c>
-      <c r="D20" s="189" t="s">
+      <c r="F20" s="189" t="s">
         <v>828</v>
       </c>
-      <c r="E20" s="189" t="s">
+      <c r="G20" s="189" t="s">
         <v>829</v>
       </c>
-      <c r="F20" s="189" t="s">
+      <c r="H20" s="189" t="s">
         <v>830</v>
       </c>
-      <c r="G20" s="189" t="s">
+      <c r="I20" s="189" t="s">
         <v>831</v>
       </c>
-      <c r="H20" s="189" t="s">
+      <c r="J20" s="189" t="s">
         <v>832</v>
-      </c>
-      <c r="I20" s="189" t="s">
-        <v>833</v>
-      </c>
-      <c r="J20" s="189" t="s">
-        <v>834</v>
       </c>
       <c r="K20" s="152"/>
       <c r="L20" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="M20" s="242" t="s">
         <v>334</v>
       </c>
-      <c r="M20" s="239" t="s">
+      <c r="N20" s="242"/>
+      <c r="P20" s="153"/>
+    </row>
+    <row r="21" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A21" s="241" t="s">
+        <v>763</v>
+      </c>
+      <c r="B21" s="151" t="s">
         <v>335</v>
       </c>
-      <c r="N20" s="239"/>
-      <c r="P20" s="153"/>
-    </row>
-    <row r="21" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A21" s="246" t="s">
-        <v>764</v>
-      </c>
-      <c r="B21" s="151" t="s">
+      <c r="C21" s="154" t="s">
         <v>336</v>
-      </c>
-      <c r="C21" s="154" t="s">
-        <v>337</v>
       </c>
       <c r="D21" s="154"/>
       <c r="E21" s="154"/>
@@ -14584,477 +14264,477 @@
         <v>0</v>
       </c>
       <c r="M21" s="240" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N21" s="240"/>
       <c r="P21" s="156"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="246"/>
+      <c r="A22" s="241"/>
       <c r="B22" s="151" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="D22" s="154" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="154" t="s">
+      <c r="E22" s="154" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="154" t="s">
+      <c r="F22" s="154" t="s">
         <v>341</v>
       </c>
-      <c r="F22" s="154" t="s">
+      <c r="G22" s="154" t="s">
         <v>342</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="H22" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="H22" s="154" t="s">
+      <c r="I22" s="154" t="s">
         <v>344</v>
       </c>
-      <c r="I22" s="154" t="s">
+      <c r="J22" s="154" t="s">
         <v>345</v>
-      </c>
-      <c r="J22" s="154" t="s">
-        <v>346</v>
       </c>
       <c r="K22" s="155"/>
       <c r="L22" s="83">
         <v>1</v>
       </c>
       <c r="M22" s="240" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N22" s="240"/>
       <c r="P22" s="156"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="246"/>
+      <c r="A23" s="241"/>
       <c r="B23" s="151" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="154" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="154" t="s">
+      <c r="D23" s="154" t="s">
         <v>348</v>
-      </c>
-      <c r="D23" s="154" t="s">
-        <v>349</v>
       </c>
       <c r="E23" s="154"/>
       <c r="F23" s="154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G23" s="154"/>
       <c r="H23" s="154"/>
       <c r="I23" s="154" t="s">
+        <v>350</v>
+      </c>
+      <c r="J23" s="154" t="s">
         <v>351</v>
-      </c>
-      <c r="J23" s="154" t="s">
-        <v>352</v>
       </c>
       <c r="K23" s="155"/>
       <c r="L23" s="83">
         <v>2</v>
       </c>
       <c r="M23" s="240" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N23" s="240"/>
       <c r="P23" s="156"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="246"/>
+      <c r="A24" s="241"/>
       <c r="B24" s="151" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="154" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="D24" s="154" t="s">
         <v>354</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="E24" s="154" t="s">
         <v>355</v>
       </c>
-      <c r="E24" s="154" t="s">
+      <c r="F24" s="154" t="s">
         <v>356</v>
       </c>
-      <c r="F24" s="154" t="s">
+      <c r="G24" s="154" t="s">
         <v>357</v>
       </c>
-      <c r="G24" s="154" t="s">
+      <c r="H24" s="154" t="s">
         <v>358</v>
       </c>
-      <c r="H24" s="154" t="s">
+      <c r="I24" s="154" t="s">
         <v>359</v>
       </c>
-      <c r="I24" s="154" t="s">
+      <c r="J24" s="154" t="s">
         <v>360</v>
-      </c>
-      <c r="J24" s="154" t="s">
-        <v>361</v>
       </c>
       <c r="K24" s="155"/>
       <c r="L24" s="83">
         <v>3</v>
       </c>
-      <c r="M24" s="239" t="s">
-        <v>301</v>
-      </c>
-      <c r="N24" s="239"/>
+      <c r="M24" s="242" t="s">
+        <v>300</v>
+      </c>
+      <c r="N24" s="242"/>
       <c r="P24" s="156"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="246"/>
+      <c r="A25" s="241"/>
       <c r="B25" s="151" t="s">
+        <v>361</v>
+      </c>
+      <c r="C25" s="154" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="D25" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="154" t="s">
+      <c r="E25" s="154" t="s">
         <v>364</v>
       </c>
-      <c r="E25" s="154" t="s">
+      <c r="F25" s="154" t="s">
         <v>365</v>
       </c>
-      <c r="F25" s="154" t="s">
+      <c r="G25" s="154" t="s">
         <v>366</v>
       </c>
-      <c r="G25" s="154" t="s">
+      <c r="H25" s="154" t="s">
         <v>367</v>
       </c>
-      <c r="H25" s="154" t="s">
+      <c r="I25" s="154" t="s">
         <v>368</v>
       </c>
-      <c r="I25" s="154" t="s">
+      <c r="J25" s="154" t="s">
         <v>369</v>
-      </c>
-      <c r="J25" s="154" t="s">
-        <v>370</v>
       </c>
       <c r="K25" s="155"/>
       <c r="L25" s="83">
         <v>4</v>
       </c>
-      <c r="M25" s="239" t="s">
-        <v>305</v>
-      </c>
-      <c r="N25" s="239"/>
+      <c r="M25" s="242" t="s">
+        <v>304</v>
+      </c>
+      <c r="N25" s="242"/>
       <c r="P25" s="156"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="246"/>
+      <c r="A26" s="241"/>
       <c r="B26" s="151" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="154" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="D26" s="154" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="154" t="s">
+      <c r="E26" s="154" t="s">
         <v>373</v>
       </c>
-      <c r="E26" s="154" t="s">
+      <c r="F26" s="154" t="s">
         <v>374</v>
       </c>
-      <c r="F26" s="154" t="s">
+      <c r="G26" s="154" t="s">
         <v>375</v>
       </c>
-      <c r="G26" s="154" t="s">
+      <c r="H26" s="154" t="s">
         <v>376</v>
       </c>
-      <c r="H26" s="154" t="s">
+      <c r="I26" s="154" t="s">
         <v>377</v>
       </c>
-      <c r="I26" s="154" t="s">
+      <c r="J26" s="154" t="s">
         <v>378</v>
-      </c>
-      <c r="J26" s="154" t="s">
-        <v>379</v>
       </c>
       <c r="K26" s="155"/>
       <c r="L26" s="83">
         <v>5</v>
       </c>
-      <c r="M26" s="239" t="s">
-        <v>308</v>
-      </c>
-      <c r="N26" s="239"/>
+      <c r="M26" s="242" t="s">
+        <v>307</v>
+      </c>
+      <c r="N26" s="242"/>
       <c r="P26" s="156"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="246"/>
+      <c r="A27" s="241"/>
       <c r="B27" s="151" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="154" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="154" t="s">
+      <c r="D27" s="154" t="s">
         <v>381</v>
       </c>
-      <c r="D27" s="154" t="s">
+      <c r="E27" s="154" t="s">
         <v>382</v>
       </c>
-      <c r="E27" s="154" t="s">
+      <c r="F27" s="154" t="s">
         <v>383</v>
       </c>
-      <c r="F27" s="154" t="s">
+      <c r="G27" s="154" t="s">
         <v>384</v>
       </c>
-      <c r="G27" s="154" t="s">
+      <c r="H27" s="154" t="s">
         <v>385</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="I27" s="154" t="s">
         <v>386</v>
       </c>
-      <c r="I27" s="154" t="s">
+      <c r="J27" s="154" t="s">
         <v>387</v>
-      </c>
-      <c r="J27" s="154" t="s">
-        <v>388</v>
       </c>
       <c r="K27" s="155"/>
       <c r="L27" s="83">
         <v>6</v>
       </c>
-      <c r="M27" s="239" t="s">
-        <v>311</v>
-      </c>
-      <c r="N27" s="239"/>
+      <c r="M27" s="242" t="s">
+        <v>310</v>
+      </c>
+      <c r="N27" s="242"/>
       <c r="P27" s="156"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="246"/>
+      <c r="A28" s="241"/>
       <c r="B28" s="151" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="D28" s="154" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="154" t="s">
+      <c r="E28" s="154" t="s">
         <v>391</v>
       </c>
-      <c r="E28" s="154" t="s">
+      <c r="F28" s="154" t="s">
         <v>392</v>
       </c>
-      <c r="F28" s="154" t="s">
+      <c r="G28" s="154" t="s">
         <v>393</v>
       </c>
-      <c r="G28" s="154" t="s">
+      <c r="H28" s="154" t="s">
         <v>394</v>
       </c>
-      <c r="H28" s="154" t="s">
+      <c r="I28" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="I28" s="154" t="s">
+      <c r="J28" s="154" t="s">
         <v>396</v>
-      </c>
-      <c r="J28" s="154" t="s">
-        <v>397</v>
       </c>
       <c r="K28" s="155"/>
       <c r="L28" s="83">
         <v>7</v>
       </c>
-      <c r="M28" s="239" t="s">
-        <v>314</v>
-      </c>
-      <c r="N28" s="239"/>
+      <c r="M28" s="242" t="s">
+        <v>313</v>
+      </c>
+      <c r="N28" s="242"/>
       <c r="P28" s="156"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="246"/>
+      <c r="A29" s="241"/>
       <c r="B29" s="151" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="154" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="D29" s="154" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="154" t="s">
+      <c r="E29" s="154" t="s">
         <v>400</v>
       </c>
-      <c r="E29" s="154" t="s">
+      <c r="F29" s="154" t="s">
         <v>401</v>
       </c>
-      <c r="F29" s="154" t="s">
+      <c r="G29" s="154" t="s">
         <v>402</v>
       </c>
-      <c r="G29" s="154" t="s">
+      <c r="H29" s="154" t="s">
         <v>403</v>
       </c>
-      <c r="H29" s="154" t="s">
+      <c r="I29" s="154" t="s">
         <v>404</v>
       </c>
-      <c r="I29" s="154" t="s">
+      <c r="J29" s="154" t="s">
         <v>405</v>
-      </c>
-      <c r="J29" s="154" t="s">
-        <v>406</v>
       </c>
       <c r="K29" s="155"/>
       <c r="L29" s="83">
         <v>8</v>
       </c>
-      <c r="M29" s="239" t="s">
-        <v>317</v>
-      </c>
-      <c r="N29" s="239"/>
+      <c r="M29" s="242" t="s">
+        <v>316</v>
+      </c>
+      <c r="N29" s="242"/>
       <c r="P29" s="156"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="246"/>
+      <c r="A30" s="241"/>
       <c r="B30" s="151" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" s="154" t="s">
         <v>407</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="D30" s="154" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="154" t="s">
+      <c r="E30" s="154" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="154" t="s">
+      <c r="F30" s="154" t="s">
         <v>410</v>
       </c>
-      <c r="F30" s="154" t="s">
+      <c r="G30" s="154" t="s">
         <v>411</v>
       </c>
-      <c r="G30" s="154" t="s">
+      <c r="H30" s="154" t="s">
         <v>412</v>
       </c>
-      <c r="H30" s="154" t="s">
+      <c r="I30" s="154" t="s">
         <v>413</v>
       </c>
-      <c r="I30" s="154" t="s">
+      <c r="J30" s="154" t="s">
         <v>414</v>
-      </c>
-      <c r="J30" s="154" t="s">
-        <v>415</v>
       </c>
       <c r="K30" s="155"/>
       <c r="L30" s="83">
         <v>9</v>
       </c>
-      <c r="M30" s="239" t="s">
-        <v>319</v>
-      </c>
-      <c r="N30" s="239"/>
+      <c r="M30" s="242" t="s">
+        <v>318</v>
+      </c>
+      <c r="N30" s="242"/>
       <c r="P30" s="157"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="246"/>
+      <c r="A31" s="241"/>
       <c r="B31" s="151" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="154" t="s">
         <v>416</v>
       </c>
-      <c r="C31" s="154" t="s">
+      <c r="D31" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="D31" s="154" t="s">
+      <c r="E31" s="154" t="s">
         <v>418</v>
       </c>
-      <c r="E31" s="154" t="s">
+      <c r="F31" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="F31" s="154" t="s">
+      <c r="G31" s="154" t="s">
         <v>420</v>
       </c>
-      <c r="G31" s="154" t="s">
+      <c r="H31" s="154" t="s">
         <v>421</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="I31" s="154" t="s">
         <v>422</v>
       </c>
-      <c r="I31" s="154" t="s">
+      <c r="J31" s="154" t="s">
         <v>423</v>
-      </c>
-      <c r="J31" s="154" t="s">
-        <v>424</v>
       </c>
       <c r="K31" s="155"/>
       <c r="L31" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="M31" s="242" t="s">
+        <v>320</v>
+      </c>
+      <c r="N31" s="242"/>
+      <c r="P31" s="157"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="241"/>
+      <c r="B32" s="151" t="s">
         <v>425</v>
       </c>
-      <c r="M31" s="239" t="s">
-        <v>321</v>
-      </c>
-      <c r="N31" s="239"/>
-      <c r="P31" s="157"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="246"/>
-      <c r="B32" s="151" t="s">
+      <c r="C32" s="154" t="s">
         <v>426</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="D32" s="154" t="s">
         <v>427</v>
       </c>
-      <c r="D32" s="154" t="s">
+      <c r="E32" s="154" t="s">
         <v>428</v>
       </c>
-      <c r="E32" s="154" t="s">
+      <c r="F32" s="154" t="s">
         <v>429</v>
       </c>
-      <c r="F32" s="154" t="s">
+      <c r="G32" s="154" t="s">
         <v>430</v>
       </c>
-      <c r="G32" s="154" t="s">
+      <c r="H32" s="154" t="s">
         <v>431</v>
       </c>
-      <c r="H32" s="154" t="s">
+      <c r="I32" s="154" t="s">
         <v>432</v>
       </c>
-      <c r="I32" s="154" t="s">
+      <c r="J32" s="154" t="s">
         <v>433</v>
-      </c>
-      <c r="J32" s="154" t="s">
-        <v>434</v>
       </c>
       <c r="K32" s="155"/>
       <c r="L32" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="M32" s="242" t="s">
+        <v>323</v>
+      </c>
+      <c r="N32" s="242"/>
+      <c r="P32" s="156"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="241"/>
+      <c r="B33" s="151" t="s">
         <v>435</v>
       </c>
-      <c r="M32" s="239" t="s">
-        <v>324</v>
-      </c>
-      <c r="N32" s="239"/>
-      <c r="P32" s="156"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="246"/>
-      <c r="B33" s="151" t="s">
+      <c r="C33" s="154" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="154" t="s">
+      <c r="D33" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="D33" s="154" t="s">
+      <c r="E33" s="154" t="s">
         <v>438</v>
       </c>
-      <c r="E33" s="154" t="s">
+      <c r="F33" s="154" t="s">
         <v>439</v>
       </c>
-      <c r="F33" s="154" t="s">
+      <c r="G33" s="154" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="154" t="s">
+      <c r="H33" s="154" t="s">
         <v>441</v>
       </c>
-      <c r="H33" s="154" t="s">
+      <c r="I33" s="154" t="s">
         <v>442</v>
       </c>
-      <c r="I33" s="154" t="s">
+      <c r="J33" s="154" t="s">
         <v>443</v>
-      </c>
-      <c r="J33" s="154" t="s">
-        <v>444</v>
       </c>
       <c r="K33" s="155"/>
       <c r="L33" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="M33" s="242" t="s">
         <v>445</v>
       </c>
-      <c r="M33" s="239" t="s">
+      <c r="N33" s="242"/>
+      <c r="P33" s="156"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="241"/>
+      <c r="B34" s="151" t="s">
         <v>446</v>
-      </c>
-      <c r="N33" s="239"/>
-      <c r="P33" s="156"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="246"/>
-      <c r="B34" s="151" t="s">
-        <v>447</v>
       </c>
       <c r="C34" s="154"/>
       <c r="D34" s="154"/>
@@ -15066,18 +14746,18 @@
       <c r="J34" s="154"/>
       <c r="K34" s="155"/>
       <c r="L34" s="83" t="s">
+        <v>447</v>
+      </c>
+      <c r="M34" s="242" t="s">
+        <v>326</v>
+      </c>
+      <c r="N34" s="242"/>
+      <c r="P34" s="157"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="241"/>
+      <c r="B35" s="151" t="s">
         <v>448</v>
-      </c>
-      <c r="M34" s="239" t="s">
-        <v>327</v>
-      </c>
-      <c r="N34" s="239"/>
-      <c r="P34" s="157"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="246"/>
-      <c r="B35" s="151" t="s">
-        <v>449</v>
       </c>
       <c r="C35" s="154"/>
       <c r="D35" s="154"/>
@@ -15089,18 +14769,18 @@
       <c r="J35" s="154"/>
       <c r="K35" s="155"/>
       <c r="L35" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="M35" s="242" t="s">
+        <v>298</v>
+      </c>
+      <c r="N35" s="242"/>
+      <c r="P35" s="157"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="241"/>
+      <c r="B36" s="151" t="s">
         <v>450</v>
-      </c>
-      <c r="M35" s="239" t="s">
-        <v>299</v>
-      </c>
-      <c r="N35" s="239"/>
-      <c r="P35" s="157"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="246"/>
-      <c r="B36" s="151" t="s">
-        <v>451</v>
       </c>
       <c r="C36" s="154"/>
       <c r="D36" s="154"/>
@@ -15112,49 +14792,49 @@
       <c r="J36" s="154"/>
       <c r="K36" s="155"/>
       <c r="L36" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="M36" s="242" t="s">
+        <v>305</v>
+      </c>
+      <c r="N36" s="242"/>
+      <c r="P36" s="157"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1">
+      <c r="A37" s="241"/>
+      <c r="B37" s="83" t="s">
         <v>452</v>
       </c>
-      <c r="M36" s="239" t="s">
-        <v>306</v>
-      </c>
-      <c r="N36" s="239"/>
-      <c r="P36" s="157"/>
-    </row>
-    <row r="37" spans="1:19" ht="18" customHeight="1">
-      <c r="A37" s="246"/>
-      <c r="B37" s="83" t="s">
+      <c r="C37" s="154" t="s">
         <v>453</v>
       </c>
-      <c r="C37" s="154" t="s">
+      <c r="D37" s="154" t="s">
         <v>454</v>
       </c>
-      <c r="D37" s="154" t="s">
+      <c r="E37" s="154" t="s">
         <v>455</v>
       </c>
-      <c r="E37" s="154" t="s">
+      <c r="F37" s="154" t="s">
         <v>456</v>
       </c>
-      <c r="F37" s="154" t="s">
+      <c r="G37" s="154" t="s">
         <v>457</v>
       </c>
-      <c r="G37" s="154" t="s">
+      <c r="H37" s="154" t="s">
         <v>458</v>
       </c>
-      <c r="H37" s="154" t="s">
+      <c r="I37" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="I37" s="154" t="s">
+      <c r="J37" s="154" t="s">
         <v>460</v>
       </c>
-      <c r="J37" s="154" t="s">
-        <v>461</v>
-      </c>
       <c r="K37" s="158"/>
-      <c r="L37" s="243" t="s">
-        <v>808</v>
-      </c>
-      <c r="M37" s="244"/>
-      <c r="N37" s="244"/>
+      <c r="L37" s="246" t="s">
+        <v>806</v>
+      </c>
+      <c r="M37" s="247"/>
+      <c r="N37" s="247"/>
       <c r="O37" s="93"/>
       <c r="P37" s="93"/>
       <c r="Q37" s="93"/>
@@ -15162,120 +14842,120 @@
       <c r="S37" s="93"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="246"/>
+      <c r="A38" s="241"/>
       <c r="B38" s="83" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" s="154" t="s">
         <v>462</v>
       </c>
-      <c r="C38" s="154" t="s">
+      <c r="D38" s="154" t="s">
         <v>463</v>
       </c>
-      <c r="D38" s="154" t="s">
+      <c r="E38" s="154" t="s">
         <v>464</v>
       </c>
-      <c r="E38" s="154" t="s">
+      <c r="F38" s="154" t="s">
         <v>465</v>
       </c>
-      <c r="F38" s="154" t="s">
+      <c r="G38" s="154" t="s">
         <v>466</v>
       </c>
-      <c r="G38" s="154" t="s">
+      <c r="H38" s="154" t="s">
         <v>467</v>
       </c>
-      <c r="H38" s="154" t="s">
+      <c r="I38" s="154" t="s">
         <v>468</v>
       </c>
-      <c r="I38" s="154" t="s">
+      <c r="J38" s="154" t="s">
         <v>469</v>
       </c>
-      <c r="J38" s="154" t="s">
-        <v>470</v>
-      </c>
       <c r="K38" s="158"/>
-      <c r="L38" s="244"/>
-      <c r="M38" s="244"/>
-      <c r="N38" s="244"/>
+      <c r="L38" s="247"/>
+      <c r="M38" s="247"/>
+      <c r="N38" s="247"/>
       <c r="P38" s="93"/>
       <c r="Q38" s="93"/>
       <c r="R38" s="93"/>
       <c r="S38" s="93"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="246"/>
+      <c r="A39" s="241"/>
       <c r="B39" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="154" t="s">
         <v>471</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="D39" s="154" t="s">
         <v>472</v>
       </c>
-      <c r="D39" s="154" t="s">
+      <c r="E39" s="154" t="s">
         <v>473</v>
       </c>
-      <c r="E39" s="154" t="s">
+      <c r="F39" s="154" t="s">
         <v>474</v>
       </c>
-      <c r="F39" s="154" t="s">
+      <c r="G39" s="154" t="s">
         <v>475</v>
       </c>
-      <c r="G39" s="154" t="s">
+      <c r="H39" s="154" t="s">
         <v>476</v>
       </c>
-      <c r="H39" s="154" t="s">
+      <c r="I39" s="154" t="s">
         <v>477</v>
       </c>
-      <c r="I39" s="154" t="s">
+      <c r="J39" s="154" t="s">
         <v>478</v>
       </c>
-      <c r="J39" s="154" t="s">
+      <c r="K39" s="159"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="241"/>
+      <c r="B40" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="K39" s="159"/>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="246"/>
-      <c r="B40" s="83" t="s">
+      <c r="C40" s="154" t="s">
         <v>480</v>
       </c>
-      <c r="C40" s="154" t="s">
+      <c r="D40" s="154" t="s">
         <v>481</v>
       </c>
-      <c r="D40" s="154" t="s">
+      <c r="E40" s="154" t="s">
         <v>482</v>
       </c>
-      <c r="E40" s="154" t="s">
+      <c r="F40" s="154" t="s">
         <v>483</v>
       </c>
-      <c r="F40" s="154" t="s">
+      <c r="G40" s="154" t="s">
         <v>484</v>
       </c>
-      <c r="G40" s="154" t="s">
+      <c r="H40" s="154" t="s">
         <v>485</v>
       </c>
-      <c r="H40" s="154" t="s">
+      <c r="I40" s="154" t="s">
         <v>486</v>
       </c>
-      <c r="I40" s="154" t="s">
+      <c r="J40" s="154" t="s">
         <v>487</v>
-      </c>
-      <c r="J40" s="154" t="s">
-        <v>488</v>
       </c>
       <c r="K40" s="159"/>
       <c r="L40" s="240" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M40" s="240"/>
       <c r="N40" s="240"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="246"/>
+      <c r="A41" s="241"/>
       <c r="B41" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="154" t="s">
         <v>489</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="D41" s="154" t="s">
         <v>490</v>
-      </c>
-      <c r="D41" s="154" t="s">
-        <v>491</v>
       </c>
       <c r="E41" s="154"/>
       <c r="F41" s="154"/>
@@ -15285,23 +14965,23 @@
       <c r="J41" s="154"/>
       <c r="K41" s="159"/>
       <c r="L41" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="M41" s="242" t="s">
         <v>334</v>
       </c>
-      <c r="M41" s="239" t="s">
-        <v>335</v>
-      </c>
-      <c r="N41" s="239"/>
+      <c r="N41" s="242"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="246"/>
+      <c r="A42" s="241"/>
       <c r="B42" s="83" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="154" t="s">
         <v>492</v>
       </c>
-      <c r="C42" s="154" t="s">
+      <c r="D42" s="154" t="s">
         <v>493</v>
-      </c>
-      <c r="D42" s="154" t="s">
-        <v>494</v>
       </c>
       <c r="E42" s="154"/>
       <c r="F42" s="154"/>
@@ -15319,12 +14999,12 @@
       <c r="N42" s="240"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="246"/>
+      <c r="A43" s="241"/>
       <c r="B43" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="160" t="s">
         <v>495</v>
-      </c>
-      <c r="C43" s="160" t="s">
-        <v>496</v>
       </c>
       <c r="D43" s="161"/>
       <c r="E43" s="154"/>
@@ -15332,7 +15012,7 @@
       <c r="G43" s="154"/>
       <c r="H43" s="154"/>
       <c r="I43" s="160" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J43" s="161"/>
       <c r="K43" s="159"/>
@@ -15345,12 +15025,12 @@
       <c r="N43" s="240"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="246"/>
+      <c r="A44" s="241"/>
       <c r="B44" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="C44" s="160" t="s">
         <v>498</v>
-      </c>
-      <c r="C44" s="160" t="s">
-        <v>499</v>
       </c>
       <c r="D44" s="161"/>
       <c r="E44" s="154"/>
@@ -15358,7 +15038,7 @@
       <c r="G44" s="154"/>
       <c r="H44" s="154"/>
       <c r="I44" s="160" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J44" s="161"/>
       <c r="K44" s="159"/>
@@ -15371,18 +15051,18 @@
       <c r="N44" s="240"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="246"/>
+      <c r="A45" s="241"/>
       <c r="B45" s="83" t="s">
+        <v>500</v>
+      </c>
+      <c r="C45" s="154" t="s">
         <v>501</v>
-      </c>
-      <c r="C45" s="154" t="s">
-        <v>502</v>
       </c>
       <c r="D45" s="154"/>
       <c r="E45" s="154"/>
       <c r="F45" s="154"/>
       <c r="G45" s="154" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H45" s="154"/>
       <c r="I45" s="154"/>
@@ -15391,15 +15071,15 @@
       <c r="L45" s="83">
         <v>3</v>
       </c>
-      <c r="M45" s="239" t="s">
+      <c r="M45" s="242" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="239"/>
+      <c r="N45" s="242"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="246"/>
+      <c r="A46" s="241"/>
       <c r="B46" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C46" s="154"/>
       <c r="D46" s="154"/>
@@ -15413,24 +15093,24 @@
       <c r="L46" s="83">
         <v>4</v>
       </c>
-      <c r="M46" s="239" t="s">
+      <c r="M46" s="242" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="239"/>
+      <c r="N46" s="242"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="246"/>
+      <c r="A47" s="241"/>
       <c r="B47" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="C47" s="154" t="s">
         <v>505</v>
-      </c>
-      <c r="C47" s="154" t="s">
-        <v>506</v>
       </c>
       <c r="D47" s="154"/>
       <c r="E47" s="154"/>
       <c r="F47" s="154"/>
       <c r="G47" s="161" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H47" s="154"/>
       <c r="I47" s="154"/>
@@ -15439,15 +15119,15 @@
       <c r="L47" s="83">
         <v>5</v>
       </c>
-      <c r="M47" s="239" t="s">
+      <c r="M47" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="N47" s="239"/>
+      <c r="N47" s="242"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="246"/>
+      <c r="A48" s="241"/>
       <c r="B48" s="83" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C48" s="154"/>
       <c r="D48" s="154"/>
@@ -15461,15 +15141,15 @@
       <c r="L48" s="83">
         <v>6</v>
       </c>
-      <c r="M48" s="239" t="s">
+      <c r="M48" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="N48" s="239"/>
+      <c r="N48" s="242"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="246"/>
+      <c r="A49" s="241"/>
       <c r="B49" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C49" s="161"/>
       <c r="D49" s="161"/>
@@ -15483,15 +15163,15 @@
       <c r="L49" s="83">
         <v>7</v>
       </c>
-      <c r="M49" s="239" t="s">
+      <c r="M49" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="N49" s="239"/>
+      <c r="N49" s="242"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="246"/>
+      <c r="A50" s="241"/>
       <c r="B50" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C50" s="154"/>
       <c r="D50" s="154"/>
@@ -15505,18 +15185,18 @@
       <c r="L50" s="83">
         <v>8</v>
       </c>
-      <c r="M50" s="239" t="s">
+      <c r="M50" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="N50" s="239"/>
+      <c r="N50" s="242"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="246"/>
+      <c r="A51" s="241"/>
       <c r="B51" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="C51" s="154" t="s">
         <v>510</v>
-      </c>
-      <c r="C51" s="154" t="s">
-        <v>511</v>
       </c>
       <c r="D51" s="154"/>
       <c r="E51" s="154"/>
@@ -15529,15 +15209,15 @@
       <c r="L51" s="83">
         <v>9</v>
       </c>
-      <c r="M51" s="239" t="s">
+      <c r="M51" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="N51" s="239"/>
+      <c r="N51" s="242"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="246"/>
+      <c r="A52" s="241"/>
       <c r="B52" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C52" s="154"/>
       <c r="D52" s="154"/>
@@ -15547,76 +15227,76 @@
       <c r="H52" s="154"/>
       <c r="I52" s="154"/>
       <c r="J52" s="160" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K52" s="159"/>
       <c r="L52" s="83" t="s">
-        <v>425</v>
-      </c>
-      <c r="M52" s="239" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="N52" s="239"/>
+      <c r="N52" s="242"/>
     </row>
     <row r="53" spans="1:14">
       <c r="C53" s="162" t="s">
+        <v>513</v>
+      </c>
+      <c r="G53" s="79" t="s">
         <v>514</v>
       </c>
-      <c r="G53" s="79" t="s">
-        <v>515</v>
-      </c>
       <c r="L53" s="83" t="s">
-        <v>435</v>
-      </c>
-      <c r="M53" s="239" t="s">
+        <v>434</v>
+      </c>
+      <c r="M53" s="242" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="239"/>
+      <c r="N53" s="242"/>
     </row>
     <row r="54" spans="1:14">
       <c r="L54" s="83" t="s">
-        <v>445</v>
-      </c>
-      <c r="M54" s="239" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="N54" s="239"/>
+      <c r="N54" s="242"/>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1">
       <c r="A55" s="163"/>
       <c r="B55" s="163" t="s">
+        <v>515</v>
+      </c>
+      <c r="C55" s="163" t="s">
         <v>516</v>
       </c>
-      <c r="C55" s="163" t="s">
+      <c r="D55" s="163" t="s">
         <v>517</v>
       </c>
-      <c r="D55" s="163" t="s">
+      <c r="E55" s="163" t="s">
         <v>518</v>
       </c>
-      <c r="E55" s="163" t="s">
+      <c r="F55" s="163" t="s">
         <v>519</v>
       </c>
-      <c r="F55" s="163" t="s">
+      <c r="G55" s="163" t="s">
         <v>520</v>
       </c>
-      <c r="G55" s="163" t="s">
-        <v>521</v>
-      </c>
-      <c r="H55" s="241" t="s">
-        <v>807</v>
-      </c>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
+      <c r="H55" s="244" t="s">
+        <v>805</v>
+      </c>
+      <c r="I55" s="245"/>
+      <c r="J55" s="245"/>
       <c r="K55" s="93"/>
       <c r="L55" s="83" t="s">
-        <v>448</v>
-      </c>
-      <c r="M55" s="239"/>
-      <c r="N55" s="239"/>
+        <v>447</v>
+      </c>
+      <c r="M55" s="242"/>
+      <c r="N55" s="242"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="163" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B56" s="163" t="s">
         <v>111</v>
@@ -15636,21 +15316,21 @@
       <c r="G56" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
+      <c r="H56" s="245"/>
+      <c r="I56" s="245"/>
+      <c r="J56" s="245"/>
       <c r="K56" s="81"/>
       <c r="L56" s="83" t="s">
-        <v>450</v>
-      </c>
-      <c r="M56" s="239" t="s">
+        <v>449</v>
+      </c>
+      <c r="M56" s="242" t="s">
         <v>142</v>
       </c>
-      <c r="N56" s="239"/>
+      <c r="N56" s="242"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="163" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B57" s="163" t="s">
         <v>139</v>
@@ -15671,28 +15351,44 @@
         <v>100</v>
       </c>
       <c r="L57" s="83" t="s">
-        <v>452</v>
-      </c>
-      <c r="M57" s="239" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" s="242" t="s">
         <v>146</v>
       </c>
-      <c r="N57" s="239"/>
+      <c r="N57" s="242"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="56">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="A21:A52"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
@@ -15709,34 +15405,18 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="H55:J56"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -15773,276 +15453,276 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" customHeight="1">
       <c r="A1" s="186" t="s">
-        <v>824</v>
-      </c>
-      <c r="H1" s="247" t="str">
+        <v>822</v>
+      </c>
+      <c r="H1" s="239" t="str">
         <f>命令表!P1</f>
-        <v>Ver.10.0.0(TeC7a,b,c,d対応)</v>
-      </c>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
+        <v>Ver.10.1.0(TeC7a,b,c,d対応)</v>
+      </c>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1">
-      <c r="I2" s="247">
+      <c r="I2" s="239">
         <f>命令表!P2</f>
-        <v>44644</v>
-      </c>
-      <c r="J2" s="247"/>
+        <v>44796</v>
+      </c>
+      <c r="J2" s="239"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="88" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="88" t="s">
         <v>524</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>525</v>
       </c>
       <c r="K3" s="114"/>
       <c r="L3" s="114"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="B4" s="82" t="s">
+        <v>715</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>716</v>
       </c>
-      <c r="C4" s="82" t="s">
-        <v>717</v>
-      </c>
       <c r="H4" s="82" t="s">
+        <v>715</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>716</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>717</v>
       </c>
       <c r="K4" s="113"/>
       <c r="L4" s="115"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="83" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" s="257" t="s">
         <v>526</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="C5" s="257"/>
+      <c r="D5" s="264" t="s">
         <v>527</v>
-      </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="300" t="s">
-        <v>528</v>
       </c>
       <c r="E5" s="116"/>
       <c r="G5" s="117" t="s">
+        <v>528</v>
+      </c>
+      <c r="H5" s="250" t="s">
+        <v>717</v>
+      </c>
+      <c r="I5" s="251"/>
+      <c r="J5" s="248" t="s">
         <v>529</v>
-      </c>
-      <c r="H5" s="291" t="s">
-        <v>718</v>
-      </c>
-      <c r="I5" s="316"/>
-      <c r="J5" s="313" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="83" t="s">
-        <v>531</v>
-      </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="301"/>
+        <v>530</v>
+      </c>
+      <c r="B6" s="257"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="265"/>
       <c r="E6" s="116"/>
       <c r="G6" s="118" t="s">
-        <v>532</v>
-      </c>
-      <c r="H6" s="309" t="s">
-        <v>719</v>
-      </c>
-      <c r="I6" s="317"/>
-      <c r="J6" s="313"/>
+        <v>531</v>
+      </c>
+      <c r="H6" s="252" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="253"/>
+      <c r="J6" s="248"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="83" t="s">
-        <v>533</v>
-      </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="301"/>
+        <v>532</v>
+      </c>
+      <c r="B7" s="257"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="265"/>
       <c r="E7" s="116"/>
       <c r="G7" s="119" t="s">
-        <v>534</v>
-      </c>
-      <c r="H7" s="291" t="s">
-        <v>720</v>
-      </c>
-      <c r="I7" s="316"/>
-      <c r="J7" s="313"/>
+        <v>533</v>
+      </c>
+      <c r="H7" s="250" t="s">
+        <v>719</v>
+      </c>
+      <c r="I7" s="251"/>
+      <c r="J7" s="248"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="297" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="301"/>
+      <c r="A8" s="261" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="257"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="265"/>
       <c r="E8" s="116"/>
       <c r="G8" s="118" t="s">
-        <v>535</v>
-      </c>
-      <c r="H8" s="309" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="317"/>
-      <c r="J8" s="313"/>
+        <v>534</v>
+      </c>
+      <c r="H8" s="252" t="s">
+        <v>720</v>
+      </c>
+      <c r="I8" s="253"/>
+      <c r="J8" s="248"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="298"/>
-      <c r="B9" s="311"/>
-      <c r="C9" s="311"/>
-      <c r="D9" s="301"/>
+      <c r="A9" s="262"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="265"/>
       <c r="E9" s="116"/>
       <c r="G9" s="117" t="s">
+        <v>535</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="123" t="s">
         <v>536</v>
       </c>
-      <c r="H9" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="123" t="s">
+      <c r="J9" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="J9" s="312" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="298"/>
-      <c r="B10" s="311"/>
-      <c r="C10" s="311"/>
-      <c r="D10" s="301"/>
+      <c r="A10" s="262"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="265"/>
       <c r="E10" s="116"/>
       <c r="G10" s="118" t="s">
+        <v>538</v>
+      </c>
+      <c r="H10" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="125" t="s">
         <v>539</v>
       </c>
-      <c r="H10" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" s="125" t="s">
-        <v>540</v>
-      </c>
-      <c r="J10" s="312"/>
+      <c r="J10" s="249"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="298"/>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="301"/>
+      <c r="A11" s="262"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="265"/>
       <c r="E11" s="116"/>
       <c r="G11" s="117" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="123" t="s">
         <v>541</v>
       </c>
-      <c r="H11" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" s="123" t="s">
+      <c r="J11" s="248" t="s">
         <v>542</v>
       </c>
-      <c r="J11" s="313" t="s">
-        <v>543</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="298"/>
-      <c r="B12" s="311"/>
-      <c r="C12" s="311"/>
-      <c r="D12" s="301"/>
+      <c r="A12" s="262"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="265"/>
       <c r="E12" s="116"/>
       <c r="G12" s="118" t="s">
+        <v>543</v>
+      </c>
+      <c r="H12" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="125" t="s">
         <v>544</v>
       </c>
-      <c r="H12" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="I12" s="125" t="s">
-        <v>545</v>
-      </c>
-      <c r="J12" s="313"/>
+      <c r="J12" s="248"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="298"/>
-      <c r="B13" s="311"/>
-      <c r="C13" s="311"/>
-      <c r="D13" s="301"/>
+      <c r="A13" s="262"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="265"/>
       <c r="E13" s="116"/>
       <c r="G13" s="117" t="s">
+        <v>545</v>
+      </c>
+      <c r="H13" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="123" t="s">
         <v>546</v>
       </c>
-      <c r="H13" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="123" t="s">
-        <v>547</v>
-      </c>
-      <c r="J13" s="315" t="s">
-        <v>814</v>
+      <c r="J13" s="259" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="298"/>
-      <c r="B14" s="311"/>
-      <c r="C14" s="311"/>
-      <c r="D14" s="301"/>
+      <c r="A14" s="262"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="265"/>
       <c r="E14" s="116"/>
       <c r="G14" s="126" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" s="260" t="s">
         <v>548</v>
       </c>
-      <c r="H14" s="308" t="s">
-        <v>549</v>
-      </c>
-      <c r="I14" s="308"/>
-      <c r="J14" s="312"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="249"/>
       <c r="N14" s="82"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="298"/>
-      <c r="B15" s="311"/>
-      <c r="C15" s="311"/>
-      <c r="D15" s="301"/>
+      <c r="A15" s="262"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="265"/>
       <c r="E15" s="116"/>
       <c r="G15" s="126" t="s">
+        <v>549</v>
+      </c>
+      <c r="H15" s="260" t="s">
         <v>550</v>
       </c>
-      <c r="H15" s="308" t="s">
-        <v>551</v>
-      </c>
-      <c r="I15" s="308"/>
-      <c r="J15" s="312"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="249"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="298"/>
-      <c r="B16" s="311"/>
-      <c r="C16" s="311"/>
-      <c r="D16" s="301"/>
+      <c r="A16" s="262"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="116"/>
       <c r="G16" s="118" t="s">
+        <v>551</v>
+      </c>
+      <c r="H16" s="258" t="s">
         <v>552</v>
       </c>
-      <c r="H16" s="314" t="s">
-        <v>553</v>
-      </c>
-      <c r="I16" s="314"/>
-      <c r="J16" s="312"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="249"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="A17" s="298"/>
-      <c r="B17" s="311"/>
-      <c r="C17" s="311"/>
-      <c r="D17" s="301"/>
+      <c r="A17" s="262"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="265"/>
       <c r="E17" s="116"/>
       <c r="G17" s="117" t="s">
+        <v>553</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>722</v>
+      </c>
+      <c r="J17" s="249" t="s">
         <v>554</v>
-      </c>
-      <c r="H17" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="128" t="s">
-        <v>723</v>
-      </c>
-      <c r="J17" s="312" t="s">
-        <v>555</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -16051,21 +15731,21 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="298"/>
-      <c r="B18" s="311"/>
-      <c r="C18" s="311"/>
-      <c r="D18" s="301"/>
+      <c r="A18" s="262"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="116"/>
       <c r="G18" s="126" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H18" s="129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="130" t="s">
-        <v>724</v>
-      </c>
-      <c r="J18" s="312"/>
+        <v>723</v>
+      </c>
+      <c r="J18" s="249"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -16073,21 +15753,21 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="298"/>
-      <c r="B19" s="311"/>
-      <c r="C19" s="311"/>
-      <c r="D19" s="301"/>
+      <c r="A19" s="262"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="265"/>
       <c r="E19" s="116"/>
       <c r="G19" s="126" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H19" s="129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I19" s="130" t="s">
-        <v>725</v>
-      </c>
-      <c r="J19" s="312"/>
+        <v>724</v>
+      </c>
+      <c r="J19" s="249"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -16095,21 +15775,21 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="298"/>
-      <c r="B20" s="311"/>
-      <c r="C20" s="311"/>
-      <c r="D20" s="301"/>
+      <c r="A20" s="262"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="265"/>
       <c r="E20" s="116"/>
       <c r="G20" s="118" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H20" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I20" s="125" t="s">
-        <v>726</v>
-      </c>
-      <c r="J20" s="312"/>
+        <v>725</v>
+      </c>
+      <c r="J20" s="249"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -16117,21 +15797,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="298"/>
-      <c r="B21" s="311"/>
-      <c r="C21" s="311"/>
-      <c r="D21" s="301"/>
+      <c r="A21" s="262"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="265"/>
       <c r="E21" s="116"/>
       <c r="G21" s="117" t="s">
+        <v>558</v>
+      </c>
+      <c r="H21" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" s="123" t="s">
         <v>559</v>
       </c>
-      <c r="H21" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="J21" s="312"/>
+      <c r="J21" s="249"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -16139,21 +15819,21 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
-      <c r="A22" s="298"/>
-      <c r="B22" s="311"/>
-      <c r="C22" s="311"/>
-      <c r="D22" s="301"/>
+      <c r="A22" s="262"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="265"/>
       <c r="E22" s="116"/>
       <c r="G22" s="118" t="s">
+        <v>560</v>
+      </c>
+      <c r="H22" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="I22" s="125" t="s">
         <v>561</v>
       </c>
-      <c r="H22" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" s="125" t="s">
-        <v>562</v>
-      </c>
-      <c r="J22" s="312"/>
+      <c r="J22" s="249"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -16161,21 +15841,21 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1">
-      <c r="A23" s="298"/>
-      <c r="B23" s="311"/>
-      <c r="C23" s="311"/>
-      <c r="D23" s="301"/>
+      <c r="A23" s="262"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="265"/>
       <c r="E23" s="116"/>
       <c r="G23" s="117" t="s">
+        <v>563</v>
+      </c>
+      <c r="H23" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="123" t="s">
         <v>564</v>
       </c>
-      <c r="H23" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" s="123" t="s">
-        <v>565</v>
-      </c>
-      <c r="J23" s="312"/>
+      <c r="J23" s="249"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -16183,21 +15863,21 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1">
-      <c r="A24" s="298"/>
-      <c r="B24" s="311"/>
-      <c r="C24" s="311"/>
-      <c r="D24" s="301"/>
+      <c r="A24" s="262"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="265"/>
       <c r="E24" s="132"/>
       <c r="G24" s="126" t="s">
+        <v>567</v>
+      </c>
+      <c r="H24" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="130" t="s">
         <v>568</v>
       </c>
-      <c r="H24" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="130" t="s">
-        <v>569</v>
-      </c>
-      <c r="J24" s="312"/>
+      <c r="J24" s="249"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -16205,22 +15885,22 @@
       <c r="Q24"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1">
-      <c r="A25" s="298"/>
-      <c r="B25" s="311"/>
-      <c r="C25" s="311"/>
-      <c r="D25" s="301"/>
+      <c r="A25" s="262"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="265"/>
       <c r="E25" s="132"/>
       <c r="G25" s="117" t="s">
+        <v>569</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" s="123" t="s">
         <v>570</v>
       </c>
-      <c r="H25" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" s="123" t="s">
+      <c r="J25" s="248" t="s">
         <v>571</v>
-      </c>
-      <c r="J25" s="313" t="s">
-        <v>572</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
@@ -16229,21 +15909,21 @@
       <c r="Q25"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1">
-      <c r="A26" s="298"/>
-      <c r="B26" s="311"/>
-      <c r="C26" s="311"/>
-      <c r="D26" s="301"/>
+      <c r="A26" s="262"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="265"/>
       <c r="E26" s="132"/>
       <c r="G26" s="126" t="s">
+        <v>573</v>
+      </c>
+      <c r="H26" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="133" t="s">
         <v>574</v>
       </c>
-      <c r="H26" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" s="133" t="s">
-        <v>575</v>
-      </c>
-      <c r="J26" s="313"/>
+      <c r="J26" s="248"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -16251,21 +15931,21 @@
       <c r="Q26"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1">
-      <c r="A27" s="298"/>
-      <c r="B27" s="311"/>
-      <c r="C27" s="311"/>
-      <c r="D27" s="301"/>
+      <c r="A27" s="262"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="265"/>
       <c r="E27" s="132"/>
       <c r="G27" s="126" t="s">
+        <v>578</v>
+      </c>
+      <c r="H27" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="133" t="s">
         <v>579</v>
       </c>
-      <c r="H27" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="133" t="s">
-        <v>580</v>
-      </c>
-      <c r="J27" s="313"/>
+      <c r="J27" s="248"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -16273,21 +15953,21 @@
       <c r="Q27"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1">
-      <c r="A28" s="298"/>
-      <c r="B28" s="311"/>
-      <c r="C28" s="311"/>
-      <c r="D28" s="301"/>
+      <c r="A28" s="262"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="265"/>
       <c r="E28" s="132"/>
       <c r="G28" s="118" t="s">
+        <v>581</v>
+      </c>
+      <c r="H28" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="134" t="s">
         <v>582</v>
       </c>
-      <c r="H28" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" s="134" t="s">
-        <v>583</v>
-      </c>
-      <c r="J28" s="313"/>
+      <c r="J28" s="248"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -16295,22 +15975,22 @@
       <c r="Q28"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1">
-      <c r="A29" s="298"/>
-      <c r="B29" s="311"/>
-      <c r="C29" s="311"/>
-      <c r="D29" s="301"/>
+      <c r="A29" s="262"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="265"/>
       <c r="E29" s="132"/>
       <c r="G29" s="122" t="s">
+        <v>584</v>
+      </c>
+      <c r="H29" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29" s="123" t="s">
         <v>585</v>
       </c>
-      <c r="H29" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" s="123" t="s">
-        <v>586</v>
-      </c>
       <c r="J29" s="170" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
@@ -16319,19 +15999,19 @@
       <c r="Q29"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1">
-      <c r="A30" s="299"/>
-      <c r="B30" s="311"/>
-      <c r="C30" s="311"/>
-      <c r="D30" s="301"/>
+      <c r="A30" s="263"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="265"/>
       <c r="E30" s="132"/>
       <c r="G30" s="126" t="s">
+        <v>587</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="130" t="s">
         <v>588</v>
-      </c>
-      <c r="H30" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" s="130" t="s">
-        <v>589</v>
       </c>
       <c r="J30" s="170"/>
       <c r="M30"/>
@@ -16342,20 +16022,20 @@
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="B31" s="311"/>
-      <c r="C31" s="311"/>
-      <c r="D31" s="302"/>
+        <v>562</v>
+      </c>
+      <c r="B31" s="257"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="266"/>
       <c r="E31" s="167"/>
       <c r="G31" s="126" t="s">
+        <v>590</v>
+      </c>
+      <c r="H31" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="I31" s="130" t="s">
         <v>591</v>
-      </c>
-      <c r="H31" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" s="130" t="s">
-        <v>592</v>
       </c>
       <c r="J31" s="170"/>
       <c r="M31"/>
@@ -16366,26 +16046,26 @@
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="B32" s="240" t="s">
         <v>566</v>
       </c>
-      <c r="B32" s="240" t="s">
-        <v>567</v>
-      </c>
       <c r="C32" s="240"/>
-      <c r="D32" s="271" t="s">
-        <v>528</v>
-      </c>
-      <c r="E32" s="271" t="s">
-        <v>727</v>
+      <c r="D32" s="287" t="s">
+        <v>527</v>
+      </c>
+      <c r="E32" s="287" t="s">
+        <v>726</v>
       </c>
       <c r="G32" s="118" t="s">
+        <v>593</v>
+      </c>
+      <c r="H32" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="125" t="s">
         <v>594</v>
-      </c>
-      <c r="H32" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" s="125" t="s">
-        <v>595</v>
       </c>
       <c r="J32" s="170"/>
       <c r="M32"/>
@@ -16396,22 +16076,22 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="240"/>
       <c r="C33" s="240"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="287"/>
       <c r="G33" s="117" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H33" s="122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I33" s="169" t="s">
-        <v>277</v>
-      </c>
-      <c r="J33" s="284"/>
+        <v>276</v>
+      </c>
+      <c r="J33" s="254"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -16420,20 +16100,20 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="135" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B34" s="240"/>
       <c r="C34" s="240"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
+      <c r="D34" s="287"/>
+      <c r="E34" s="287"/>
       <c r="G34" s="118" t="s">
-        <v>282</v>
-      </c>
-      <c r="H34" s="309" t="s">
-        <v>282</v>
-      </c>
-      <c r="I34" s="310"/>
-      <c r="J34" s="286"/>
+        <v>281</v>
+      </c>
+      <c r="H34" s="252" t="s">
+        <v>281</v>
+      </c>
+      <c r="I34" s="256"/>
+      <c r="J34" s="255"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -16443,25 +16123,25 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="120" t="s">
-        <v>576</v>
-      </c>
-      <c r="B35" s="272" t="s">
-        <v>603</v>
-      </c>
-      <c r="C35" s="272"/>
-      <c r="D35" s="271" t="s">
-        <v>578</v>
-      </c>
-      <c r="E35" s="271"/>
+        <v>575</v>
+      </c>
+      <c r="B35" s="288" t="s">
+        <v>602</v>
+      </c>
+      <c r="C35" s="288"/>
+      <c r="D35" s="287" t="s">
+        <v>577</v>
+      </c>
+      <c r="E35" s="287"/>
       <c r="G35" s="179" t="s">
-        <v>775</v>
-      </c>
-      <c r="H35" s="306" t="s">
-        <v>728</v>
-      </c>
-      <c r="I35" s="307"/>
-      <c r="J35" s="284" t="s">
-        <v>601</v>
+        <v>774</v>
+      </c>
+      <c r="H35" s="275" t="s">
+        <v>727</v>
+      </c>
+      <c r="I35" s="276"/>
+      <c r="J35" s="254" t="s">
+        <v>600</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -16472,22 +16152,22 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="121" t="s">
-        <v>581</v>
-      </c>
-      <c r="B36" s="270" t="s">
-        <v>600</v>
-      </c>
-      <c r="C36" s="270"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
+        <v>580</v>
+      </c>
+      <c r="B36" s="269" t="s">
+        <v>599</v>
+      </c>
+      <c r="C36" s="269"/>
+      <c r="D36" s="287"/>
+      <c r="E36" s="287"/>
       <c r="G36" s="180" t="s">
-        <v>776</v>
-      </c>
-      <c r="H36" s="303" t="s">
-        <v>730</v>
-      </c>
-      <c r="I36" s="290"/>
-      <c r="J36" s="285"/>
+        <v>775</v>
+      </c>
+      <c r="H36" s="267" t="s">
+        <v>729</v>
+      </c>
+      <c r="I36" s="268"/>
+      <c r="J36" s="299"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -16497,22 +16177,22 @@
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="121" t="s">
-        <v>584</v>
-      </c>
-      <c r="B37" s="270" t="s">
-        <v>737</v>
-      </c>
-      <c r="C37" s="270"/>
-      <c r="D37" s="271"/>
-      <c r="E37" s="271"/>
+        <v>583</v>
+      </c>
+      <c r="B37" s="269" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" s="269"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="287"/>
       <c r="G37" s="180" t="s">
-        <v>777</v>
-      </c>
-      <c r="H37" s="303" t="s">
-        <v>732</v>
-      </c>
-      <c r="I37" s="290"/>
-      <c r="J37" s="285"/>
+        <v>776</v>
+      </c>
+      <c r="H37" s="267" t="s">
+        <v>731</v>
+      </c>
+      <c r="I37" s="268"/>
+      <c r="J37" s="299"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -16522,22 +16202,22 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="121" t="s">
-        <v>587</v>
-      </c>
-      <c r="B38" s="270" t="s">
-        <v>735</v>
-      </c>
-      <c r="C38" s="270"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
+        <v>586</v>
+      </c>
+      <c r="B38" s="269" t="s">
+        <v>734</v>
+      </c>
+      <c r="C38" s="269"/>
+      <c r="D38" s="287"/>
+      <c r="E38" s="287"/>
       <c r="G38" s="180" t="s">
-        <v>778</v>
-      </c>
-      <c r="H38" s="303" t="s">
-        <v>734</v>
-      </c>
-      <c r="I38" s="290"/>
-      <c r="J38" s="285"/>
+        <v>777</v>
+      </c>
+      <c r="H38" s="267" t="s">
+        <v>733</v>
+      </c>
+      <c r="I38" s="268"/>
+      <c r="J38" s="299"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -16547,22 +16227,22 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="121" t="s">
-        <v>590</v>
-      </c>
-      <c r="B39" s="269" t="s">
-        <v>815</v>
-      </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
+        <v>589</v>
+      </c>
+      <c r="B39" s="286" t="s">
+        <v>813</v>
+      </c>
+      <c r="C39" s="269"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
       <c r="G39" s="181" t="s">
-        <v>641</v>
-      </c>
-      <c r="H39" s="289" t="s">
-        <v>641</v>
-      </c>
-      <c r="I39" s="290"/>
-      <c r="J39" s="285"/>
+        <v>640</v>
+      </c>
+      <c r="H39" s="272" t="s">
+        <v>640</v>
+      </c>
+      <c r="I39" s="268"/>
+      <c r="J39" s="299"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -16572,22 +16252,22 @@
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="121" t="s">
-        <v>593</v>
-      </c>
-      <c r="B40" s="270" t="s">
-        <v>733</v>
-      </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
+        <v>592</v>
+      </c>
+      <c r="B40" s="269" t="s">
+        <v>732</v>
+      </c>
+      <c r="C40" s="269"/>
+      <c r="D40" s="287"/>
+      <c r="E40" s="287"/>
       <c r="G40" s="180" t="s">
-        <v>779</v>
-      </c>
-      <c r="H40" s="289" t="s">
-        <v>736</v>
-      </c>
-      <c r="I40" s="290"/>
-      <c r="J40" s="285"/>
+        <v>778</v>
+      </c>
+      <c r="H40" s="272" t="s">
+        <v>735</v>
+      </c>
+      <c r="I40" s="268"/>
+      <c r="J40" s="299"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -16597,22 +16277,22 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="121" t="s">
-        <v>596</v>
-      </c>
-      <c r="B41" s="270" t="s">
-        <v>731</v>
-      </c>
-      <c r="C41" s="270"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
+        <v>595</v>
+      </c>
+      <c r="B41" s="269" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" s="269"/>
+      <c r="D41" s="287"/>
+      <c r="E41" s="287"/>
       <c r="G41" s="180" t="s">
-        <v>780</v>
-      </c>
-      <c r="H41" s="289" t="s">
-        <v>738</v>
-      </c>
-      <c r="I41" s="290"/>
-      <c r="J41" s="285"/>
+        <v>779</v>
+      </c>
+      <c r="H41" s="272" t="s">
+        <v>737</v>
+      </c>
+      <c r="I41" s="268"/>
+      <c r="J41" s="299"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -16622,22 +16302,22 @@
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="121" t="s">
-        <v>598</v>
-      </c>
-      <c r="B42" s="270" t="s">
-        <v>729</v>
-      </c>
-      <c r="C42" s="270"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="271"/>
+        <v>597</v>
+      </c>
+      <c r="B42" s="269" t="s">
+        <v>728</v>
+      </c>
+      <c r="C42" s="269"/>
+      <c r="D42" s="287"/>
+      <c r="E42" s="287"/>
       <c r="G42" s="182" t="s">
-        <v>771</v>
-      </c>
-      <c r="H42" s="295" t="s">
-        <v>811</v>
-      </c>
-      <c r="I42" s="290"/>
-      <c r="J42" s="285"/>
+        <v>770</v>
+      </c>
+      <c r="H42" s="280" t="s">
+        <v>809</v>
+      </c>
+      <c r="I42" s="268"/>
+      <c r="J42" s="299"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -16647,22 +16327,22 @@
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="121" t="s">
-        <v>599</v>
-      </c>
-      <c r="B43" s="270" t="s">
-        <v>722</v>
-      </c>
-      <c r="C43" s="270"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271"/>
+        <v>598</v>
+      </c>
+      <c r="B43" s="269" t="s">
+        <v>721</v>
+      </c>
+      <c r="C43" s="269"/>
+      <c r="D43" s="287"/>
+      <c r="E43" s="287"/>
       <c r="G43" s="182" t="s">
-        <v>772</v>
-      </c>
-      <c r="H43" s="275" t="s">
-        <v>812</v>
-      </c>
-      <c r="I43" s="296"/>
-      <c r="J43" s="285"/>
+        <v>771</v>
+      </c>
+      <c r="H43" s="281" t="s">
+        <v>810</v>
+      </c>
+      <c r="I43" s="282"/>
+      <c r="J43" s="299"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -16672,22 +16352,22 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="121" t="s">
-        <v>602</v>
-      </c>
-      <c r="B44" s="270" t="s">
-        <v>577</v>
-      </c>
-      <c r="C44" s="270"/>
-      <c r="D44" s="271"/>
-      <c r="E44" s="271"/>
+        <v>601</v>
+      </c>
+      <c r="B44" s="269" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" s="269"/>
+      <c r="D44" s="287"/>
+      <c r="E44" s="287"/>
       <c r="G44" s="182" t="s">
-        <v>773</v>
-      </c>
-      <c r="H44" s="275" t="s">
-        <v>813</v>
-      </c>
-      <c r="I44" s="276"/>
-      <c r="J44" s="285"/>
+        <v>772</v>
+      </c>
+      <c r="H44" s="281" t="s">
+        <v>811</v>
+      </c>
+      <c r="I44" s="291"/>
+      <c r="J44" s="299"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -16697,22 +16377,22 @@
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="121" t="s">
-        <v>604</v>
-      </c>
-      <c r="B45" s="293" t="s">
-        <v>816</v>
-      </c>
-      <c r="C45" s="294"/>
-      <c r="D45" s="271"/>
-      <c r="E45" s="271"/>
+        <v>603</v>
+      </c>
+      <c r="B45" s="273" t="s">
+        <v>814</v>
+      </c>
+      <c r="C45" s="274"/>
+      <c r="D45" s="287"/>
+      <c r="E45" s="287"/>
       <c r="G45" s="183" t="s">
-        <v>774</v>
-      </c>
-      <c r="H45" s="273" t="s">
-        <v>792</v>
-      </c>
-      <c r="I45" s="274"/>
-      <c r="J45" s="286"/>
+        <v>773</v>
+      </c>
+      <c r="H45" s="289" t="s">
+        <v>791</v>
+      </c>
+      <c r="I45" s="290"/>
+      <c r="J45" s="255"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -16722,115 +16402,115 @@
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="121" t="s">
-        <v>605</v>
-      </c>
-      <c r="B46" s="293" t="s">
-        <v>817</v>
-      </c>
-      <c r="C46" s="294"/>
-      <c r="D46" s="271"/>
-      <c r="E46" s="271"/>
+        <v>604</v>
+      </c>
+      <c r="B46" s="273" t="s">
+        <v>815</v>
+      </c>
+      <c r="C46" s="274"/>
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
       <c r="G46" s="118" t="s">
-        <v>282</v>
-      </c>
-      <c r="H46" s="304" t="s">
-        <v>709</v>
-      </c>
-      <c r="I46" s="305"/>
+        <v>281</v>
+      </c>
+      <c r="H46" s="270" t="s">
+        <v>708</v>
+      </c>
+      <c r="I46" s="271"/>
       <c r="J46" s="168"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="121" t="s">
-        <v>606</v>
-      </c>
-      <c r="B47" s="287" t="s">
-        <v>818</v>
-      </c>
-      <c r="C47" s="288"/>
-      <c r="D47" s="271"/>
-      <c r="E47" s="271"/>
+        <v>605</v>
+      </c>
+      <c r="B47" s="277" t="s">
+        <v>816</v>
+      </c>
+      <c r="C47" s="278"/>
+      <c r="D47" s="287"/>
+      <c r="E47" s="287"/>
       <c r="G47" s="117" t="s">
+        <v>609</v>
+      </c>
+      <c r="H47" s="250" t="s">
+        <v>738</v>
+      </c>
+      <c r="I47" s="279"/>
+      <c r="J47" s="294" t="s">
         <v>610</v>
-      </c>
-      <c r="H47" s="291" t="s">
-        <v>739</v>
-      </c>
-      <c r="I47" s="292"/>
-      <c r="J47" s="279" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="121" t="s">
-        <v>607</v>
-      </c>
-      <c r="B48" s="287" t="s">
-        <v>819</v>
-      </c>
-      <c r="C48" s="288"/>
-      <c r="D48" s="271"/>
-      <c r="E48" s="271"/>
+        <v>606</v>
+      </c>
+      <c r="B48" s="277" t="s">
+        <v>817</v>
+      </c>
+      <c r="C48" s="278"/>
+      <c r="D48" s="287"/>
+      <c r="E48" s="287"/>
       <c r="G48" s="126" t="s">
-        <v>612</v>
-      </c>
-      <c r="H48" s="282" t="s">
-        <v>740</v>
-      </c>
-      <c r="I48" s="283"/>
-      <c r="J48" s="280"/>
+        <v>611</v>
+      </c>
+      <c r="H48" s="297" t="s">
+        <v>739</v>
+      </c>
+      <c r="I48" s="298"/>
+      <c r="J48" s="295"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
       <c r="A49" s="121" t="s">
-        <v>608</v>
-      </c>
-      <c r="B49" s="287" t="s">
-        <v>820</v>
-      </c>
-      <c r="C49" s="288"/>
-      <c r="D49" s="271"/>
-      <c r="E49" s="271"/>
+        <v>607</v>
+      </c>
+      <c r="B49" s="277" t="s">
+        <v>818</v>
+      </c>
+      <c r="C49" s="278"/>
+      <c r="D49" s="287"/>
+      <c r="E49" s="287"/>
       <c r="G49" s="126" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H49" s="129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I49" s="136" t="s">
-        <v>741</v>
-      </c>
-      <c r="J49" s="280"/>
+        <v>740</v>
+      </c>
+      <c r="J49" s="295"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
       <c r="A50" s="178" t="s">
-        <v>609</v>
-      </c>
-      <c r="B50" s="277" t="s">
-        <v>821</v>
-      </c>
-      <c r="C50" s="278"/>
-      <c r="D50" s="271"/>
-      <c r="E50" s="271"/>
+        <v>608</v>
+      </c>
+      <c r="B50" s="292" t="s">
+        <v>819</v>
+      </c>
+      <c r="C50" s="293"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="287"/>
       <c r="G50" s="118" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H50" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I50" s="137" t="s">
-        <v>742</v>
-      </c>
-      <c r="J50" s="281"/>
+        <v>741</v>
+      </c>
+      <c r="J50" s="296"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
       <c r="A51" s="85"/>
       <c r="B51" s="184" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C51" s="172"/>
       <c r="D51" s="116"/>
       <c r="E51" s="116"/>
       <c r="G51" s="88" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J51" s="139"/>
     </row>
@@ -16841,7 +16521,7 @@
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
       <c r="G52" s="88" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J52" s="140"/>
     </row>
@@ -16849,272 +16529,272 @@
       <c r="D53" s="138"/>
       <c r="E53" s="171"/>
       <c r="G53" s="88" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J53" s="140"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1">
       <c r="A54" s="141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G54" s="88"/>
       <c r="J54" s="140"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
       <c r="A55" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>745</v>
+      </c>
+      <c r="C55" s="83" t="s">
         <v>615</v>
       </c>
-      <c r="B55" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="C55" s="83" t="s">
-        <v>616</v>
-      </c>
-      <c r="D55" s="263" t="s">
-        <v>335</v>
-      </c>
-      <c r="E55" s="264"/>
-      <c r="F55" s="264"/>
-      <c r="G55" s="264"/>
-      <c r="H55" s="264"/>
-      <c r="I55" s="264"/>
-      <c r="J55" s="265"/>
+      <c r="D55" s="300" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="301"/>
+      <c r="F55" s="301"/>
+      <c r="G55" s="301"/>
+      <c r="H55" s="301"/>
+      <c r="I55" s="301"/>
+      <c r="J55" s="302"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1">
       <c r="A56" s="142"/>
       <c r="B56" s="83" t="s">
+        <v>616</v>
+      </c>
+      <c r="C56" s="83" t="s">
         <v>617</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="D56" s="283" t="s">
         <v>618</v>
       </c>
-      <c r="D56" s="266" t="s">
-        <v>619</v>
-      </c>
-      <c r="E56" s="267"/>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="268"/>
+      <c r="E56" s="284"/>
+      <c r="F56" s="284"/>
+      <c r="G56" s="284"/>
+      <c r="H56" s="284"/>
+      <c r="I56" s="284"/>
+      <c r="J56" s="285"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1">
       <c r="A57" s="142"/>
       <c r="B57" s="83" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" s="83" t="s">
+        <v>617</v>
+      </c>
+      <c r="D57" s="283" t="s">
         <v>620</v>
       </c>
-      <c r="C57" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="D57" s="266" t="s">
-        <v>621</v>
-      </c>
-      <c r="E57" s="267"/>
-      <c r="F57" s="267"/>
-      <c r="G57" s="267"/>
-      <c r="H57" s="267"/>
-      <c r="I57" s="267"/>
-      <c r="J57" s="268"/>
+      <c r="E57" s="284"/>
+      <c r="F57" s="284"/>
+      <c r="G57" s="284"/>
+      <c r="H57" s="284"/>
+      <c r="I57" s="284"/>
+      <c r="J57" s="285"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" s="143" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B58" s="142" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C58" s="83" t="s">
+        <v>621</v>
+      </c>
+      <c r="D58" s="283" t="s">
         <v>622</v>
       </c>
-      <c r="D58" s="266" t="s">
-        <v>623</v>
-      </c>
-      <c r="E58" s="267"/>
-      <c r="F58" s="267"/>
-      <c r="G58" s="267"/>
-      <c r="H58" s="267"/>
-      <c r="I58" s="267"/>
-      <c r="J58" s="268"/>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284"/>
+      <c r="G58" s="284"/>
+      <c r="H58" s="284"/>
+      <c r="I58" s="284"/>
+      <c r="J58" s="285"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
       <c r="A59" s="143" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="142" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C59" s="83" t="s">
+        <v>621</v>
+      </c>
+      <c r="D59" s="283" t="s">
         <v>622</v>
       </c>
-      <c r="D59" s="266" t="s">
-        <v>623</v>
-      </c>
-      <c r="E59" s="267"/>
-      <c r="F59" s="267"/>
-      <c r="G59" s="267"/>
-      <c r="H59" s="267"/>
-      <c r="I59" s="267"/>
-      <c r="J59" s="268"/>
+      <c r="E59" s="284"/>
+      <c r="F59" s="284"/>
+      <c r="G59" s="284"/>
+      <c r="H59" s="284"/>
+      <c r="I59" s="284"/>
+      <c r="J59" s="285"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
       <c r="A60" s="83" t="s">
+        <v>623</v>
+      </c>
+      <c r="B60" s="83" t="s">
         <v>624</v>
       </c>
-      <c r="B60" s="83" t="s">
+      <c r="C60" s="83" t="s">
         <v>625</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="D60" s="283" t="s">
         <v>626</v>
       </c>
-      <c r="D60" s="266" t="s">
-        <v>627</v>
-      </c>
-      <c r="E60" s="267"/>
-      <c r="F60" s="267"/>
-      <c r="G60" s="267"/>
-      <c r="H60" s="267"/>
-      <c r="I60" s="267"/>
-      <c r="J60" s="268"/>
+      <c r="E60" s="284"/>
+      <c r="F60" s="284"/>
+      <c r="G60" s="284"/>
+      <c r="H60" s="284"/>
+      <c r="I60" s="284"/>
+      <c r="J60" s="285"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
       <c r="A61" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B61" s="83" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" s="83" t="s">
         <v>628</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="D61" s="283" t="s">
         <v>629</v>
       </c>
-      <c r="D61" s="266" t="s">
-        <v>630</v>
-      </c>
-      <c r="E61" s="267"/>
-      <c r="F61" s="267"/>
-      <c r="G61" s="267"/>
-      <c r="H61" s="267"/>
-      <c r="I61" s="267"/>
-      <c r="J61" s="268"/>
+      <c r="E61" s="284"/>
+      <c r="F61" s="284"/>
+      <c r="G61" s="284"/>
+      <c r="H61" s="284"/>
+      <c r="I61" s="284"/>
+      <c r="J61" s="285"/>
     </row>
     <row r="62" spans="1:10" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="83" t="s">
+        <v>630</v>
+      </c>
+      <c r="B62" s="83" t="s">
         <v>631</v>
       </c>
-      <c r="B62" s="83" t="s">
+      <c r="C62" s="83" t="s">
         <v>632</v>
       </c>
-      <c r="C62" s="83" t="s">
-        <v>633</v>
-      </c>
-      <c r="D62" s="257" t="s">
-        <v>749</v>
-      </c>
-      <c r="E62" s="258"/>
-      <c r="F62" s="258"/>
-      <c r="G62" s="258"/>
-      <c r="H62" s="258"/>
-      <c r="I62" s="258"/>
-      <c r="J62" s="259"/>
+      <c r="D62" s="312" t="s">
+        <v>748</v>
+      </c>
+      <c r="E62" s="313"/>
+      <c r="F62" s="313"/>
+      <c r="G62" s="313"/>
+      <c r="H62" s="313"/>
+      <c r="I62" s="313"/>
+      <c r="J62" s="314"/>
     </row>
     <row r="63" spans="1:10" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="83" t="s">
+        <v>633</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" s="83" t="s">
         <v>634</v>
       </c>
-      <c r="B63" s="83" t="s">
-        <v>580</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>635</v>
-      </c>
-      <c r="D63" s="248" t="s">
-        <v>750</v>
-      </c>
-      <c r="E63" s="249"/>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="249"/>
-      <c r="I63" s="249"/>
-      <c r="J63" s="250"/>
+      <c r="D63" s="303" t="s">
+        <v>749</v>
+      </c>
+      <c r="E63" s="304"/>
+      <c r="F63" s="304"/>
+      <c r="G63" s="304"/>
+      <c r="H63" s="304"/>
+      <c r="I63" s="304"/>
+      <c r="J63" s="305"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
       <c r="A64" s="177" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B64" s="185" t="s">
+        <v>642</v>
+      </c>
+      <c r="C64" s="177" t="s">
+        <v>647</v>
+      </c>
+      <c r="D64" s="306" t="s">
         <v>643</v>
       </c>
-      <c r="C64" s="177" t="s">
-        <v>648</v>
-      </c>
-      <c r="D64" s="251" t="s">
-        <v>644</v>
-      </c>
-      <c r="E64" s="252"/>
-      <c r="F64" s="252"/>
-      <c r="G64" s="252"/>
-      <c r="H64" s="252"/>
-      <c r="I64" s="252"/>
-      <c r="J64" s="253"/>
+      <c r="E64" s="307"/>
+      <c r="F64" s="307"/>
+      <c r="G64" s="307"/>
+      <c r="H64" s="307"/>
+      <c r="I64" s="307"/>
+      <c r="J64" s="308"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
       <c r="A65" s="177" t="s">
+        <v>645</v>
+      </c>
+      <c r="B65" s="177" t="s">
         <v>646</v>
       </c>
-      <c r="B65" s="177" t="s">
+      <c r="C65" s="177" t="s">
         <v>647</v>
       </c>
-      <c r="C65" s="177" t="s">
-        <v>648</v>
-      </c>
-      <c r="D65" s="251" t="s">
-        <v>644</v>
-      </c>
-      <c r="E65" s="252"/>
-      <c r="F65" s="252"/>
-      <c r="G65" s="252"/>
-      <c r="H65" s="252"/>
-      <c r="I65" s="252"/>
-      <c r="J65" s="253"/>
+      <c r="D65" s="306" t="s">
+        <v>643</v>
+      </c>
+      <c r="E65" s="307"/>
+      <c r="F65" s="307"/>
+      <c r="G65" s="307"/>
+      <c r="H65" s="307"/>
+      <c r="I65" s="307"/>
+      <c r="J65" s="308"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1">
       <c r="A66" s="83" t="s">
+        <v>635</v>
+      </c>
+      <c r="B66" s="144" t="s">
+        <v>740</v>
+      </c>
+      <c r="C66" s="83" t="s">
         <v>636</v>
       </c>
-      <c r="B66" s="144" t="s">
-        <v>741</v>
-      </c>
-      <c r="C66" s="83" t="s">
-        <v>637</v>
-      </c>
-      <c r="D66" s="260" t="s">
-        <v>781</v>
-      </c>
-      <c r="E66" s="261"/>
-      <c r="F66" s="261"/>
-      <c r="G66" s="261"/>
-      <c r="H66" s="261"/>
-      <c r="I66" s="261"/>
-      <c r="J66" s="262"/>
+      <c r="D66" s="315" t="s">
+        <v>780</v>
+      </c>
+      <c r="E66" s="316"/>
+      <c r="F66" s="316"/>
+      <c r="G66" s="316"/>
+      <c r="H66" s="316"/>
+      <c r="I66" s="316"/>
+      <c r="J66" s="317"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1">
       <c r="A67" s="145" t="s">
+        <v>637</v>
+      </c>
+      <c r="B67" s="146" t="s">
+        <v>741</v>
+      </c>
+      <c r="C67" s="145" t="s">
         <v>638</v>
       </c>
-      <c r="B67" s="146" t="s">
-        <v>742</v>
-      </c>
-      <c r="C67" s="145" t="s">
+      <c r="D67" s="309" t="s">
         <v>639</v>
       </c>
-      <c r="D67" s="254" t="s">
-        <v>640</v>
-      </c>
-      <c r="E67" s="255"/>
-      <c r="F67" s="255"/>
-      <c r="G67" s="255"/>
-      <c r="H67" s="255"/>
-      <c r="I67" s="255"/>
-      <c r="J67" s="256"/>
+      <c r="E67" s="310"/>
+      <c r="F67" s="310"/>
+      <c r="G67" s="310"/>
+      <c r="H67" s="310"/>
+      <c r="I67" s="310"/>
+      <c r="J67" s="311"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1">
       <c r="A69" s="79"/>
@@ -17224,23 +16904,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="69">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B5:C31"/>
-    <mergeCell ref="J17:J24"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E50"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:D50"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J35:J45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="A8:A30"/>
     <mergeCell ref="D5:D31"/>
     <mergeCell ref="H36:I36"/>
@@ -17257,42 +16956,23 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E50"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:D50"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J35:J45"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B5:C31"/>
+    <mergeCell ref="J17:J24"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -17319,31 +16999,31 @@
   <sheetData>
     <row r="1" spans="1:27" ht="20">
       <c r="A1" s="111" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q1" s="247" t="str">
+        <v>714</v>
+      </c>
+      <c r="Q1" s="239" t="str">
         <f>命令表!P1</f>
-        <v>Ver.10.0.0(TeC7a,b,c,d対応)</v>
-      </c>
-      <c r="R1" s="247"/>
-      <c r="S1" s="247"/>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="247"/>
+        <v>Ver.10.1.0(TeC7a,b,c,d対応)</v>
+      </c>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
     </row>
     <row r="2" spans="1:27" ht="20">
       <c r="A2" s="111"/>
-      <c r="W2" s="319">
+      <c r="W2" s="330">
         <f>命令表!P2</f>
-        <v>44644</v>
-      </c>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="319"/>
+        <v>44796</v>
+      </c>
+      <c r="X2" s="330"/>
+      <c r="Y2" s="330"/>
+      <c r="Z2" s="330"/>
       <c r="AA2" s="147"/>
     </row>
     <row r="3" spans="1:27">
@@ -17376,7 +17056,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="92" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -17434,27 +17114,27 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="92"/>
-      <c r="B6" s="318" t="s">
-        <v>713</v>
-      </c>
-      <c r="C6" s="318"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="318"/>
-      <c r="O6" s="318"/>
-      <c r="P6" s="318"/>
-      <c r="Q6" s="318"/>
-      <c r="R6" s="318"/>
-      <c r="S6" s="318"/>
-      <c r="T6" s="318"/>
+      <c r="B6" s="326" t="s">
+        <v>712</v>
+      </c>
+      <c r="C6" s="326"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="326"/>
+      <c r="P6" s="326"/>
+      <c r="Q6" s="326"/>
+      <c r="R6" s="326"/>
+      <c r="S6" s="326"/>
+      <c r="T6" s="326"/>
       <c r="U6" s="95"/>
       <c r="V6" s="95"/>
       <c r="W6" s="95"/>
@@ -17464,29 +17144,29 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="92"/>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="318" t="s">
+      <c r="B7" s="329"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="329"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="326" t="s">
+        <v>710</v>
+      </c>
+      <c r="J7" s="326"/>
+      <c r="K7" s="326"/>
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
+      <c r="N7" s="326"/>
+      <c r="O7" s="326" t="s">
         <v>711</v>
       </c>
-      <c r="J7" s="318"/>
-      <c r="K7" s="318"/>
-      <c r="L7" s="318"/>
-      <c r="M7" s="318"/>
-      <c r="N7" s="318"/>
-      <c r="O7" s="318" t="s">
-        <v>712</v>
-      </c>
-      <c r="P7" s="318"/>
-      <c r="Q7" s="318"/>
-      <c r="R7" s="318"/>
-      <c r="S7" s="318"/>
-      <c r="T7" s="318"/>
+      <c r="P7" s="326"/>
+      <c r="Q7" s="326"/>
+      <c r="R7" s="326"/>
+      <c r="S7" s="326"/>
+      <c r="T7" s="326"/>
       <c r="U7" s="95"/>
       <c r="V7" s="95"/>
       <c r="W7" s="95"/>
@@ -17497,32 +17177,32 @@
     <row r="8" spans="1:27">
       <c r="A8" s="92"/>
       <c r="B8" s="324" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C8" s="325"/>
       <c r="D8" s="325"/>
       <c r="E8" s="325"/>
       <c r="F8" s="325"/>
-      <c r="G8" s="320" t="s">
+      <c r="G8" s="321" t="s">
+        <v>706</v>
+      </c>
+      <c r="H8" s="322"/>
+      <c r="I8" s="326" t="s">
         <v>707</v>
       </c>
-      <c r="H8" s="321"/>
-      <c r="I8" s="318" t="s">
+      <c r="J8" s="326"/>
+      <c r="K8" s="326"/>
+      <c r="L8" s="326"/>
+      <c r="M8" s="326"/>
+      <c r="N8" s="326"/>
+      <c r="O8" s="326" t="s">
         <v>708</v>
       </c>
-      <c r="J8" s="318"/>
-      <c r="K8" s="318"/>
-      <c r="L8" s="318"/>
-      <c r="M8" s="318"/>
-      <c r="N8" s="318"/>
-      <c r="O8" s="318" t="s">
-        <v>709</v>
-      </c>
-      <c r="P8" s="318"/>
-      <c r="Q8" s="318"/>
-      <c r="R8" s="318"/>
-      <c r="S8" s="318"/>
-      <c r="T8" s="318"/>
+      <c r="P8" s="326"/>
+      <c r="Q8" s="326"/>
+      <c r="R8" s="326"/>
+      <c r="S8" s="326"/>
+      <c r="T8" s="326"/>
       <c r="U8" s="95"/>
       <c r="V8" s="95"/>
       <c r="W8" s="95"/>
@@ -17533,32 +17213,32 @@
     <row r="9" spans="1:27">
       <c r="A9" s="92"/>
       <c r="B9" s="324" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="325"/>
       <c r="E9" s="325"/>
       <c r="F9" s="325"/>
-      <c r="G9" s="320" t="s">
-        <v>702</v>
-      </c>
-      <c r="H9" s="321"/>
-      <c r="I9" s="318" t="s">
-        <v>699</v>
-      </c>
-      <c r="J9" s="318"/>
-      <c r="K9" s="318"/>
-      <c r="L9" s="318"/>
-      <c r="M9" s="318"/>
-      <c r="N9" s="318"/>
-      <c r="O9" s="318" t="s">
-        <v>710</v>
-      </c>
-      <c r="P9" s="318"/>
-      <c r="Q9" s="318"/>
-      <c r="R9" s="318"/>
-      <c r="S9" s="318"/>
-      <c r="T9" s="318"/>
+      <c r="G9" s="321" t="s">
+        <v>701</v>
+      </c>
+      <c r="H9" s="322"/>
+      <c r="I9" s="326" t="s">
+        <v>698</v>
+      </c>
+      <c r="J9" s="326"/>
+      <c r="K9" s="326"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="326" t="s">
+        <v>709</v>
+      </c>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="326"/>
+      <c r="S9" s="326"/>
+      <c r="T9" s="326"/>
       <c r="U9" s="96"/>
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
@@ -17569,32 +17249,32 @@
     <row r="10" spans="1:27">
       <c r="A10" s="92"/>
       <c r="B10" s="324" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C10" s="325"/>
       <c r="D10" s="325"/>
       <c r="E10" s="325"/>
       <c r="F10" s="325"/>
-      <c r="G10" s="320" t="s">
+      <c r="G10" s="321" t="s">
+        <v>697</v>
+      </c>
+      <c r="H10" s="322"/>
+      <c r="I10" s="326" t="s">
         <v>698</v>
       </c>
-      <c r="H10" s="321"/>
-      <c r="I10" s="318" t="s">
+      <c r="J10" s="326"/>
+      <c r="K10" s="326"/>
+      <c r="L10" s="326"/>
+      <c r="M10" s="326"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="318" t="s">
         <v>699</v>
       </c>
-      <c r="J10" s="318"/>
-      <c r="K10" s="318"/>
-      <c r="L10" s="318"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="318"/>
-      <c r="O10" s="322" t="s">
-        <v>700</v>
-      </c>
-      <c r="P10" s="322"/>
-      <c r="Q10" s="322"/>
-      <c r="R10" s="322"/>
-      <c r="S10" s="322"/>
-      <c r="T10" s="322"/>
+      <c r="P10" s="318"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="318"/>
+      <c r="S10" s="318"/>
+      <c r="T10" s="318"/>
       <c r="U10" s="96"/>
       <c r="V10" s="96"/>
       <c r="W10" s="95"/>
@@ -17605,32 +17285,32 @@
     <row r="11" spans="1:27">
       <c r="A11" s="92"/>
       <c r="B11" s="324" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C11" s="325"/>
       <c r="D11" s="325"/>
       <c r="E11" s="325"/>
       <c r="F11" s="325"/>
-      <c r="G11" s="320" t="s">
+      <c r="G11" s="321" t="s">
+        <v>686</v>
+      </c>
+      <c r="H11" s="322"/>
+      <c r="I11" s="323" t="s">
         <v>687</v>
       </c>
-      <c r="H11" s="321"/>
-      <c r="I11" s="330" t="s">
-        <v>688</v>
-      </c>
-      <c r="J11" s="330"/>
-      <c r="K11" s="330"/>
-      <c r="L11" s="330"/>
-      <c r="M11" s="330"/>
-      <c r="N11" s="330"/>
-      <c r="O11" s="322" t="s">
-        <v>701</v>
-      </c>
-      <c r="P11" s="322"/>
-      <c r="Q11" s="322"/>
-      <c r="R11" s="322"/>
-      <c r="S11" s="322"/>
-      <c r="T11" s="322"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="318" t="s">
+        <v>700</v>
+      </c>
+      <c r="P11" s="318"/>
+      <c r="Q11" s="318"/>
+      <c r="R11" s="318"/>
+      <c r="S11" s="318"/>
+      <c r="T11" s="318"/>
       <c r="U11" s="96"/>
       <c r="V11" s="95"/>
       <c r="W11" s="95"/>
@@ -17668,164 +17348,164 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="92"/>
-      <c r="B13" s="329" t="s">
-        <v>683</v>
-      </c>
-      <c r="C13" s="320"/>
-      <c r="D13" s="320"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="320"/>
-      <c r="H13" s="320"/>
-      <c r="I13" s="320"/>
-      <c r="J13" s="320"/>
-      <c r="K13" s="320"/>
-      <c r="L13" s="320"/>
-      <c r="M13" s="320"/>
-      <c r="N13" s="320"/>
-      <c r="O13" s="320"/>
-      <c r="P13" s="320"/>
-      <c r="Q13" s="320"/>
-      <c r="R13" s="320"/>
-      <c r="S13" s="320"/>
-      <c r="T13" s="320"/>
-      <c r="U13" s="320"/>
-      <c r="V13" s="320"/>
-      <c r="W13" s="320"/>
-      <c r="X13" s="320"/>
-      <c r="Y13" s="321"/>
+      <c r="B13" s="320" t="s">
+        <v>682</v>
+      </c>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="321"/>
+      <c r="M13" s="321"/>
+      <c r="N13" s="321"/>
+      <c r="O13" s="321"/>
+      <c r="P13" s="321"/>
+      <c r="Q13" s="321"/>
+      <c r="R13" s="321"/>
+      <c r="S13" s="321"/>
+      <c r="T13" s="321"/>
+      <c r="U13" s="321"/>
+      <c r="V13" s="321"/>
+      <c r="W13" s="321"/>
+      <c r="X13" s="321"/>
+      <c r="Y13" s="322"/>
       <c r="Z13" s="94"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="97"/>
       <c r="B14" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="C14" s="319" t="s">
         <v>660</v>
       </c>
-      <c r="C14" s="326" t="s">
+      <c r="D14" s="319"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="80" t="s">
         <v>661</v>
       </c>
-      <c r="D14" s="326"/>
-      <c r="E14" s="326"/>
-      <c r="F14" s="326"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="80" t="s">
+      <c r="I14" s="319" t="s">
         <v>662</v>
       </c>
-      <c r="I14" s="326" t="s">
+      <c r="J14" s="319"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
+      <c r="M14" s="319"/>
+      <c r="N14" s="80" t="s">
         <v>663</v>
       </c>
-      <c r="J14" s="326"/>
-      <c r="K14" s="326"/>
-      <c r="L14" s="326"/>
-      <c r="M14" s="326"/>
-      <c r="N14" s="80" t="s">
+      <c r="O14" s="319" t="s">
         <v>664</v>
       </c>
-      <c r="O14" s="326" t="s">
+      <c r="P14" s="319"/>
+      <c r="Q14" s="319"/>
+      <c r="R14" s="319"/>
+      <c r="S14" s="319"/>
+      <c r="T14" s="80" t="s">
+        <v>655</v>
+      </c>
+      <c r="U14" s="319" t="s">
         <v>665</v>
       </c>
-      <c r="P14" s="326"/>
-      <c r="Q14" s="326"/>
-      <c r="R14" s="326"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="80" t="s">
-        <v>656</v>
-      </c>
-      <c r="U14" s="326" t="s">
-        <v>666</v>
-      </c>
-      <c r="V14" s="326"/>
-      <c r="W14" s="326"/>
-      <c r="X14" s="326"/>
-      <c r="Y14" s="326"/>
+      <c r="V14" s="319"/>
+      <c r="W14" s="319"/>
+      <c r="X14" s="319"/>
+      <c r="Y14" s="319"/>
       <c r="Z14" s="94"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1">
       <c r="A15" s="97"/>
       <c r="B15" s="80" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" s="319" t="s">
         <v>667</v>
       </c>
-      <c r="C15" s="326" t="s">
+      <c r="D15" s="319"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="80" t="s">
         <v>668</v>
       </c>
-      <c r="D15" s="326"/>
-      <c r="E15" s="326"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="80" t="s">
+      <c r="I15" s="319" t="s">
         <v>669</v>
       </c>
-      <c r="I15" s="326" t="s">
+      <c r="J15" s="319"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="319"/>
+      <c r="M15" s="319"/>
+      <c r="N15" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="J15" s="326"/>
-      <c r="K15" s="326"/>
-      <c r="L15" s="326"/>
-      <c r="M15" s="326"/>
-      <c r="N15" s="80" t="s">
+      <c r="O15" s="319" t="s">
         <v>671</v>
       </c>
-      <c r="O15" s="326" t="s">
+      <c r="P15" s="319"/>
+      <c r="Q15" s="319"/>
+      <c r="R15" s="319"/>
+      <c r="S15" s="319"/>
+      <c r="T15" s="80" t="s">
         <v>672</v>
       </c>
-      <c r="P15" s="326"/>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="80" t="s">
+      <c r="U15" s="319" t="s">
         <v>673</v>
       </c>
-      <c r="U15" s="326" t="s">
-        <v>674</v>
-      </c>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="326"/>
+      <c r="V15" s="319"/>
+      <c r="W15" s="319"/>
+      <c r="X15" s="319"/>
+      <c r="Y15" s="319"/>
       <c r="Z15" s="94"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1">
       <c r="A16" s="97"/>
       <c r="B16" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="C16" s="319" t="s">
         <v>675</v>
       </c>
-      <c r="C16" s="326" t="s">
+      <c r="D16" s="319"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="319"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="80" t="s">
         <v>676</v>
       </c>
-      <c r="D16" s="326"/>
-      <c r="E16" s="326"/>
-      <c r="F16" s="326"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="80" t="s">
+      <c r="I16" s="319" t="s">
         <v>677</v>
       </c>
-      <c r="I16" s="326" t="s">
+      <c r="J16" s="319"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="319"/>
+      <c r="M16" s="319"/>
+      <c r="N16" s="80" t="s">
         <v>678</v>
       </c>
-      <c r="J16" s="326"/>
-      <c r="K16" s="326"/>
-      <c r="L16" s="326"/>
-      <c r="M16" s="326"/>
-      <c r="N16" s="80" t="s">
+      <c r="O16" s="319" t="s">
         <v>679</v>
       </c>
-      <c r="O16" s="326" t="s">
+      <c r="P16" s="319"/>
+      <c r="Q16" s="319"/>
+      <c r="R16" s="319"/>
+      <c r="S16" s="319"/>
+      <c r="T16" s="80" t="s">
         <v>680</v>
       </c>
-      <c r="P16" s="326"/>
-      <c r="Q16" s="326"/>
-      <c r="R16" s="326"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="80" t="s">
+      <c r="U16" s="319" t="s">
         <v>681</v>
       </c>
-      <c r="U16" s="326" t="s">
-        <v>682</v>
-      </c>
-      <c r="V16" s="326"/>
-      <c r="W16" s="326"/>
-      <c r="X16" s="326"/>
-      <c r="Y16" s="326"/>
+      <c r="V16" s="319"/>
+      <c r="W16" s="319"/>
+      <c r="X16" s="319"/>
+      <c r="Y16" s="319"/>
       <c r="Z16" s="94"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
@@ -17858,68 +17538,68 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="92"/>
-      <c r="B18" s="329" t="s">
-        <v>686</v>
-      </c>
-      <c r="C18" s="320"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="320"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="320"/>
-      <c r="H18" s="320"/>
-      <c r="I18" s="320"/>
-      <c r="J18" s="320"/>
-      <c r="K18" s="320"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-      <c r="N18" s="320"/>
-      <c r="O18" s="320"/>
-      <c r="P18" s="320"/>
-      <c r="Q18" s="320"/>
-      <c r="R18" s="320"/>
-      <c r="S18" s="320"/>
-      <c r="T18" s="320"/>
-      <c r="U18" s="320"/>
-      <c r="V18" s="320"/>
-      <c r="W18" s="320"/>
-      <c r="X18" s="320"/>
-      <c r="Y18" s="321"/>
+      <c r="B18" s="320" t="s">
+        <v>685</v>
+      </c>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="321"/>
+      <c r="F18" s="321"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="321"/>
+      <c r="I18" s="321"/>
+      <c r="J18" s="321"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="321"/>
+      <c r="M18" s="321"/>
+      <c r="N18" s="321"/>
+      <c r="O18" s="321"/>
+      <c r="P18" s="321"/>
+      <c r="Q18" s="321"/>
+      <c r="R18" s="321"/>
+      <c r="S18" s="321"/>
+      <c r="T18" s="321"/>
+      <c r="U18" s="321"/>
+      <c r="V18" s="321"/>
+      <c r="W18" s="321"/>
+      <c r="X18" s="321"/>
+      <c r="Y18" s="322"/>
       <c r="Z18" s="94"/>
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
       <c r="A19" s="97"/>
       <c r="B19" s="80" t="s">
-        <v>655</v>
-      </c>
-      <c r="C19" s="326" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" s="319" t="s">
+        <v>683</v>
+      </c>
+      <c r="D19" s="319"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="319"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="80" t="s">
         <v>684</v>
       </c>
-      <c r="D19" s="326"/>
-      <c r="E19" s="326"/>
-      <c r="F19" s="326"/>
-      <c r="G19" s="326"/>
-      <c r="H19" s="80" t="s">
-        <v>685</v>
-      </c>
-      <c r="I19" s="326" t="s">
-        <v>668</v>
-      </c>
-      <c r="J19" s="326"/>
-      <c r="K19" s="326"/>
-      <c r="L19" s="326"/>
-      <c r="M19" s="326"/>
+      <c r="I19" s="319" t="s">
+        <v>667</v>
+      </c>
+      <c r="J19" s="319"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
       <c r="N19" s="80"/>
-      <c r="O19" s="326"/>
-      <c r="P19" s="326"/>
-      <c r="Q19" s="326"/>
-      <c r="R19" s="326"/>
-      <c r="S19" s="326"/>
+      <c r="O19" s="319"/>
+      <c r="P19" s="319"/>
+      <c r="Q19" s="319"/>
+      <c r="R19" s="319"/>
+      <c r="S19" s="319"/>
       <c r="T19" s="80"/>
-      <c r="U19" s="326"/>
-      <c r="V19" s="326"/>
-      <c r="W19" s="326"/>
-      <c r="X19" s="326"/>
-      <c r="Y19" s="326"/>
+      <c r="U19" s="319"/>
+      <c r="V19" s="319"/>
+      <c r="W19" s="319"/>
+      <c r="X19" s="319"/>
+      <c r="Y19" s="319"/>
       <c r="Z19" s="94"/>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
@@ -18035,7 +17715,7 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
       <c r="A24" s="173" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
@@ -18093,78 +17773,78 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="92"/>
-      <c r="B26" s="318" t="s">
-        <v>659</v>
-      </c>
-      <c r="C26" s="318"/>
-      <c r="D26" s="318"/>
-      <c r="E26" s="318"/>
-      <c r="F26" s="318"/>
-      <c r="G26" s="318"/>
-      <c r="H26" s="318"/>
-      <c r="I26" s="318"/>
-      <c r="J26" s="318"/>
-      <c r="K26" s="318"/>
-      <c r="L26" s="318"/>
-      <c r="M26" s="318"/>
-      <c r="N26" s="318"/>
-      <c r="O26" s="318"/>
-      <c r="P26" s="318"/>
-      <c r="Q26" s="318"/>
-      <c r="R26" s="318"/>
-      <c r="S26" s="318"/>
-      <c r="T26" s="318"/>
-      <c r="U26" s="318"/>
-      <c r="V26" s="318"/>
-      <c r="W26" s="318"/>
-      <c r="X26" s="318"/>
-      <c r="Y26" s="318"/>
+      <c r="B26" s="326" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26" s="326"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="326"/>
+      <c r="F26" s="326"/>
+      <c r="G26" s="326"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="326"/>
+      <c r="J26" s="326"/>
+      <c r="K26" s="326"/>
+      <c r="L26" s="326"/>
+      <c r="M26" s="326"/>
+      <c r="N26" s="326"/>
+      <c r="O26" s="326"/>
+      <c r="P26" s="326"/>
+      <c r="Q26" s="326"/>
+      <c r="R26" s="326"/>
+      <c r="S26" s="326"/>
+      <c r="T26" s="326"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
+      <c r="X26" s="326"/>
+      <c r="Y26" s="326"/>
       <c r="Z26" s="94"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="92"/>
-      <c r="B27" s="318" t="s">
+      <c r="B27" s="326" t="s">
+        <v>695</v>
+      </c>
+      <c r="C27" s="326"/>
+      <c r="D27" s="326"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="326"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326" t="s">
         <v>696</v>
       </c>
-      <c r="C27" s="318"/>
-      <c r="D27" s="318"/>
-      <c r="E27" s="318"/>
-      <c r="F27" s="318"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="318"/>
-      <c r="I27" s="318"/>
-      <c r="J27" s="318" t="s">
-        <v>697</v>
-      </c>
-      <c r="K27" s="318"/>
-      <c r="L27" s="318"/>
-      <c r="M27" s="318"/>
-      <c r="N27" s="318"/>
-      <c r="O27" s="318"/>
-      <c r="P27" s="318"/>
-      <c r="Q27" s="318"/>
-      <c r="R27" s="318"/>
-      <c r="S27" s="318"/>
-      <c r="T27" s="318"/>
-      <c r="U27" s="318"/>
-      <c r="V27" s="318"/>
-      <c r="W27" s="318"/>
-      <c r="X27" s="318"/>
-      <c r="Y27" s="318"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="326"/>
+      <c r="N27" s="326"/>
+      <c r="O27" s="326"/>
+      <c r="P27" s="326"/>
+      <c r="Q27" s="326"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="326"/>
+      <c r="T27" s="326"/>
+      <c r="U27" s="326"/>
+      <c r="V27" s="326"/>
+      <c r="W27" s="326"/>
+      <c r="X27" s="326"/>
+      <c r="Y27" s="326"/>
       <c r="Z27" s="94"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="106"/>
       <c r="B28" s="327" t="s">
-        <v>649</v>
-      </c>
-      <c r="C28" s="318"/>
-      <c r="D28" s="318"/>
-      <c r="E28" s="318"/>
-      <c r="F28" s="318"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="318"/>
-      <c r="I28" s="318"/>
+        <v>648</v>
+      </c>
+      <c r="C28" s="326"/>
+      <c r="D28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
       <c r="J28" s="102">
         <v>15</v>
       </c>
@@ -18181,64 +17861,64 @@
         <v>11</v>
       </c>
       <c r="O28" s="328" t="s">
+        <v>649</v>
+      </c>
+      <c r="P28" s="326"/>
+      <c r="Q28" s="326"/>
+      <c r="R28" s="327" t="s">
         <v>650</v>
       </c>
-      <c r="P28" s="318"/>
-      <c r="Q28" s="318"/>
-      <c r="R28" s="327" t="s">
-        <v>651</v>
-      </c>
-      <c r="S28" s="318"/>
-      <c r="T28" s="318"/>
-      <c r="U28" s="318"/>
-      <c r="V28" s="318"/>
-      <c r="W28" s="318"/>
-      <c r="X28" s="318"/>
-      <c r="Y28" s="318"/>
+      <c r="S28" s="326"/>
+      <c r="T28" s="326"/>
+      <c r="U28" s="326"/>
+      <c r="V28" s="326"/>
+      <c r="W28" s="326"/>
+      <c r="X28" s="326"/>
+      <c r="Y28" s="326"/>
       <c r="Z28" s="94"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="106"/>
-      <c r="B29" s="318" t="s">
+      <c r="B29" s="326" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" s="326"/>
+      <c r="D29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="C29" s="318"/>
-      <c r="D29" s="318"/>
-      <c r="E29" s="318"/>
-      <c r="F29" s="318"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="318"/>
-      <c r="I29" s="318"/>
-      <c r="J29" s="80" t="s">
+      <c r="K29" s="80" t="s">
         <v>653</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="L29" s="80" t="s">
+        <v>653</v>
+      </c>
+      <c r="M29" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="L29" s="80" t="s">
-        <v>654</v>
-      </c>
-      <c r="M29" s="80" t="s">
+      <c r="N29" s="80" t="s">
         <v>655</v>
       </c>
-      <c r="N29" s="80" t="s">
+      <c r="O29" s="326" t="s">
         <v>656</v>
       </c>
-      <c r="O29" s="318" t="s">
+      <c r="P29" s="326"/>
+      <c r="Q29" s="326"/>
+      <c r="R29" s="326" t="s">
         <v>657</v>
       </c>
-      <c r="P29" s="318"/>
-      <c r="Q29" s="318"/>
-      <c r="R29" s="318" t="s">
-        <v>658</v>
-      </c>
-      <c r="S29" s="318"/>
-      <c r="T29" s="318"/>
-      <c r="U29" s="318"/>
-      <c r="V29" s="318"/>
-      <c r="W29" s="318"/>
-      <c r="X29" s="318"/>
-      <c r="Y29" s="318"/>
+      <c r="S29" s="326"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="326"/>
+      <c r="V29" s="326"/>
+      <c r="W29" s="326"/>
+      <c r="X29" s="326"/>
+      <c r="Y29" s="326"/>
       <c r="Z29" s="94"/>
     </row>
     <row r="30" spans="1:26">
@@ -18272,30 +17952,30 @@
     <row r="31" spans="1:26">
       <c r="A31" s="107"/>
       <c r="B31" s="86" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
       <c r="E31" s="86"/>
       <c r="F31" s="86"/>
       <c r="G31" s="93" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H31" s="93"/>
       <c r="I31" s="86"/>
       <c r="J31" s="93" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K31" s="93"/>
       <c r="L31" s="93"/>
       <c r="M31" s="93" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N31" s="93"/>
       <c r="O31" s="93"/>
       <c r="P31" s="93"/>
       <c r="R31" s="86" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S31" s="93"/>
       <c r="T31" s="93"/>
@@ -18320,13 +18000,13 @@
       <c r="K32" s="93"/>
       <c r="L32" s="93"/>
       <c r="M32" s="93" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N32" s="93"/>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
       <c r="R32" s="93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S32" s="93"/>
       <c r="T32" s="93"/>
@@ -18531,6 +18211,39 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="49">
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:Y29"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Y27"/>
+    <mergeCell ref="B26:Y26"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:Y28"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="U19:Y19"/>
     <mergeCell ref="O11:T11"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="O16:S16"/>
@@ -18547,39 +18260,6 @@
     <mergeCell ref="O15:S15"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="I11:N11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R29:Y29"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Y27"/>
-    <mergeCell ref="B26:Y26"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:Y28"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="O9:T9"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
